--- a/All_word.xlsx
+++ b/All_word.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="senior502" sheetId="1" r:id="rId1"/>
     <sheet name="all3000+" sheetId="6" r:id="rId2"/>
+    <sheet name="junior high school" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7139" uniqueCount="6170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7773" uniqueCount="6325">
   <si>
     <t>adolescence</t>
   </si>
@@ -21113,6 +21114,1357 @@
       </rPr>
       <t>opulation</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ome int</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>in time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>come in
+英 [kʌm in]   美 [kʌm ɪn]  
+进来;到达;当选;（赛跑等比赛中）取得（名次）
+PHRASAL VERB (信息)传来;(报告或电话)接收到 If information, a report, or a telephone call comes in, it is received.
+Reports are now coming in of trouble at yet another jail.
+另一所监狱也发生了骚乱的消息正在不断传来。
+2
+PHRASAL VERB (钱款)定期收到;有收入 If you have some money coming in, you receive it regularly as your income.
+She had no money coming in and no funds.
+她没有收入，也没有存款。
+3
+PHRASAL VERB 加入，参与(讨论、安排或任务) If someone comes in on a discussion, arrangement, or task, they join it.
+Can I come in here too, on both points?...
+我能否也加入进来，说说这两点呢？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>示意</t>
+  </si>
+  <si>
+    <t>n.乞丐；家伙</t>
+  </si>
+  <si>
+    <t>cruel</t>
+  </si>
+  <si>
+    <t>adj.残忍的，残酷的；伤人的</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>detect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">detect
+纠错
+英 [dɪ'tekt] 美 [dɪ'tɛkt]
+vt. 察觉；发现；探测
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.干旱，旱灾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 天国; 天堂; 乐土;  极乐世界;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>sightsee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sightsee
+纠错
+英 ['saɪtsi:] 美 ['saɪtsi]
+vt. 观光；游览
+vi. 观光
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abacus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isty</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">misty
+纠错
+英 ['mɪstɪ] 美 ['mɪsti]
+adj. 模糊的；有雾的
+n. (Misty)人名；(英)米斯蒂，米丝蒂(女名)；(法)米斯蒂
+比较级 mistier最高级 mistiest
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.壮观的，极好的，辉煌的，豪华的_x000D_
+</t>
+  </si>
+  <si>
+    <t>n.牧羊人，羊倌_x000D_
+v.带领，引导</t>
+  </si>
+  <si>
+    <t>n.公牛，食用牛_x000D_
+v.操舵，驾驶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 钻头;  操练;  vi. 钻孔;  vt. 在…上钻孔;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 流畅的, (说话)流利的;  顺畅的;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>v. 烤；烘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 漏洞; 泄漏; _x000D_
+v. 漏; 泄露; </t>
+  </si>
+  <si>
+    <t>n.(物)电荷，费用；主管_x000D_
+v.索价；控告；充电，充值</t>
+  </si>
+  <si>
+    <t>n.阻塞，果酱_x000D_
+v.(使)阻塞，使塞满</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enior</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>senior
+纠错
+英 ['si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nɪə; 'si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>njə] 美 ['sinɪɚ]
+adj. 高级的；年长的；地位较高的；年资较深的，资格较老的
+n. 上司；较年长者；毕业班学生
+n. (Senior)人名；(英)西尼尔</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.年少的；低年级的；下级的；[美国四年制大学]三年级的
+n.年少者，晚辈，(美国四年制大学)三年级学生</t>
+  </si>
+  <si>
+    <t>v.浸，蘸_x000D_
+n.倾斜，下降；浸渍</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ependent</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent
+英 [di'pendənt] 美 [dɪ'pɛndənt]
+adj. 依靠的；从属的；取决于…的
+n. 依赖他人者；受赡养者
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.豌豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 愿望, 渴望, 欲望;  要求;  _x000D_
+vi. 有希望, 期望, 愿望;  _x000D_
+vt. 希望, 渴望;  请求, 要求;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>n.钢，钢铁，钢制品_x000D_
+v.使坚强_x000D_
+adj.钢的，与钢有关的</t>
+  </si>
+  <si>
+    <t>v.登上，爬上；骑上；增长_x000D_
+n.山，峰</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">intelligent
+intelligent
+纠错
+英 [ɪn'telɪdʒ(ə)nt] 美 [ɪn'tɛlɪdʒənt]
+adj. 智能的；聪明的；理解力强的
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.固体_x000D_
+adj.固体的，结实的，坚固的</t>
+  </si>
+  <si>
+    <t>n.传真(机)；传真件_x000D_
+v.用传真传输</t>
+  </si>
+  <si>
+    <t>n. 木板；董事会；甲板；膳食_x000D_
+v. 乘船；用板铺；供膳食；寄宿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 不真实的;  荒诞离奇的;  不可思议的, 极大的;  极好的;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>n.松树_x000D_
+v.（因疾病等）憔悴，衰退</t>
+  </si>
+  <si>
+    <t>n. 乐队；帮伙；带_x000D_
+v.用带捆扎；联合</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ustomary</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">customary
+英 ['kʌstəm(ə)rɪ] 美 ['kʌstə'mɛri]
+adj. 习惯的；通常的
+n. 习惯法汇编
+复数:customaries
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 习惯;  风俗;  惯例;  [复数, 动词用单数], 海关;  _x000D_
+adj. 定制的;  专做定货的;  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 套服;  请求;  诉讼;  _x000D_
+vi. 合适;  _x000D_
+vt. 适宜于;  使穿上套服;  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 密友, 常客;  高级官吏的家属;  _x000D_
+adj. 不拘礼节的, 亲密的;  随便的, 熟悉的;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>v.使突然想到；打；罢工_x000D_
+n.罢工；袭击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.安排；安放；调停 _x000D_
+</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tream</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>英 [stri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">m] 美 [strim]
+n. 溪流；流动；潮流；光线
+vi. 流；涌进；飘扬
+vt. 流出；涌出；使飘动
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 皮革
+adj. 皮的</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ierce</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">皮尔斯
+[pí ěr sī]
+纠错
+Pierce
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.陷阱；捕兽夹；诡计_x000D_
+v.诱骗</t>
+  </si>
+  <si>
+    <t>n.海豹；邮戳；封条；火漆印_x000D_
+v.密封；封锁；缄口</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hase</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">phase
+纠错
+英 [feɪz] 美 [fez]
+n. 月相
+n. （月亮的）盈亏
+n. 时期
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 简短的警句;  短语, 习语;  _x000D_
+</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nner</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inner
+纠错
+英 [ɪnə] 美 ['ɪnɚ]
+adj. 内部的；内心的；精神的
+n. 内部
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大西洋的　　_x000D_
+n.大西洋</t>
+  </si>
+  <si>
+    <t>aggress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">英 [ə'ɡres] 美
+vi. 攻击；侵略
+vt. 侵犯；挑衅
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.窗帘，幕(布)_x000D_
+v.装帘子，遮掉</t>
+  </si>
+  <si>
+    <t>v. 抚摸；擦；擦破_x000D_
+n. 摩擦；障碍；磨损处</t>
+  </si>
+  <si>
+    <t>n. 毛巾，手巾_x000D_
+v. 用毛巾擦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.挂架，搁架_x000D_
+v.折磨，使痛苦_x000D_
+</t>
+  </si>
+  <si>
+    <t>n. 模型，模特_x000D_
+v. 模仿</t>
+  </si>
+  <si>
+    <t>examination</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">examination
+纠错
+英 [ɪg,zæmɪ'neɪʃ(ə)n; eg-] 美 [ɪg'zæmə'neʃən]
+n. 考试；检查；查问
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 放松_x000D_
+adj. 宽松的；（指言行等）不严谨的</t>
+  </si>
+  <si>
+    <t>n.理解；紧握，把手_x000D_
+v.领会，理解；抓住</t>
+  </si>
+  <si>
+    <t>n.帮主，主人，大师；硕士_x000D_
+adj.精通的，主要的_x000D_
+v.掌握，精通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.地基，基础，基金(会)，建立，粉底_x000D_
+</t>
+  </si>
+  <si>
+    <t>adj.瞎的，盲目的_x000D_
+v.使失明，蒙蔽_x000D_
+n.盲点，百叶窗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interj. 立正!;  注意!;  _x000D_
+n. 专心, 留心, 注意;  注意力;  关心;  体贴;  礼貌;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>n.扫帚_x000D_
+v.扫除，用扫帚扫</t>
+  </si>
+  <si>
+    <t>v.使落下，降低_x000D_
+n.下降，滴剂，滴状物，下落物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 斑点；污点_x000D_
+v. 发现，认出_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>n.衣袋_x000D_
+adj.袖珍的</t>
+  </si>
+  <si>
+    <t>n. 法院，庭院，球场；宫廷_x000D_
+v. 献殷勤, 招致危险, 追求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. 冻结_x000D_
+v.使结冰 </t>
+  </si>
+  <si>
+    <t>n. 独木舟，轻舟_x000D_
+v. 乘独木舟，用独木舟运</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 同伴, 志同道合的人;  _x000D_
+vt. 陪伴, 陪同;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>adj.商业区的，闹市区的 _x000D_
+adv.往(在)商业区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 公正地, 公平地, 正当地;  清楚地;  完全, 简直;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>cock</t>
+  </si>
+  <si>
+    <t>n.公鸡，龙头， 首领；架子十足的人</t>
+  </si>
+  <si>
+    <t>n.针；针状物_x000D_
+v.用针穿刺；刺激</t>
+  </si>
+  <si>
+    <t>comrade</t>
+  </si>
+  <si>
+    <t>n. 同伴;  同志;  战友</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onvenience</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>convenience
+英 [kən'vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nɪəns] 美 [kən'vinɪəns]
+n. 便利；厕所；便利的事物
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.方便的；便利的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 口授, 口述;  听写;  命令;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>n.谜，谜语_x000D_
+v.解谜，出谜题，筛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 鼓;  圆桶;  _x000D_
+vi. 击鼓;  冬冬地敲;  _x000D_
+vt. 为…击鼓;  敲出;  把…装桶;  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 不变的事物;  常数, 恒量;  _x000D_
+adj. 持久不变的, 始终如一的;  继续不断的;  持续的;  _x000D_
+</t>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gay
+英 [geɪ] 美 [ɡe]
+adj. 快乐的；放荡的；艳丽的
+n. 同性恋者
+n. (Gay)人名；(西)加伊；(英、法、瑞典、毛里塔)盖伊
+比较级 gayer最高级 gayest
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 实际的；实用的；实践的_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 习语, 成语;  惯用语法;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>adv.而且_x000D_
+prep.除…之外</t>
+  </si>
+  <si>
+    <t>v. 判断；审判；裁决_x000D_
+n. 法官；裁判</t>
+  </si>
+  <si>
+    <t>v.(使)升起，举起_x000D_
+n.电梯；举起；免费搭车</t>
+  </si>
+  <si>
+    <t>n.块；件；篇_x000D_
+v. 修补；接合；凑合</t>
+  </si>
+  <si>
+    <t>n.故事，传说</t>
+  </si>
+  <si>
+    <t>n.绳，索_x000D_
+v.用绳捆(或扎等)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 黄油;  奉承话;  _x000D_
+vt. 涂黄油, 于…上, 用黄油烹调;  讨好;  _x000D_
+</t>
+  </si>
+  <si>
+    <t>pound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pound
+纠错
+英 [paʊnd] 美 [paʊnd]
+n. 英镑；重击，重击声；兽栏；拘留所
+vt. 捣烂；敲打；监禁，拘留
+vi. 连续重击，猛击
+n. (Pound)人名；(英)庞德
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.形状，表格；形体_x000D_
+v.形成</t>
+  </si>
+  <si>
+    <t>n. 领带</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.把…借给，贷(款) 
+lent
+英 [lent] 美 [lɛnt]
+v. 借给；贷款（lend的过去式和过去分词）
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lame</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 团;  肿块;  大量;  粗笨的人;  vi. 成团, 成堆;  
+adj. 成团的;  整个儿的;  vt. 使成块;  使团结在一起;  把…混在一起;  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.政治的；党派的_x000D_
+</t>
+  </si>
+  <si>
+    <t>n. 塔，楼塔_x000D_
+v. 高耸；胜过</t>
+  </si>
+  <si>
+    <t>v.(使)行军，(使)行进_x000D_
+n.行军，行程，三月</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eshape</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reshape
+英 [ˌri:'ʃeɪp] 美 [riˈʃep]
+vt. 改造；再成形
+过去式 reshaped过去分词 reshaped现在分词 reshaping
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasurable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasurable
+英 ['pleʒ(ə)rəb(ə)l] 美 ['pleʒərəbl]
+adj. 快乐的；心情舒畅的；令人愉快的
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.紫的_x000D_
+n.紫色</t>
+  </si>
+  <si>
+    <t>regard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>regard
+英 [rɪ'gɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">d] 美 [rɪ'ɡɑrd]
+n. 注意；尊重；问候；凝视
+vt. 注重，考虑；看待；尊敬；把…看作；与…有关
+vi. 注意，注重；注视
+n. (Regard)人名；(西、意)雷加德；(法)勒加尔
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 咩咩叫；胡扯；抱怨 _x000D_
+n. 咩咩叫声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 眼睛;  眼球;  眼圈;  眼神;  注意;  判断力;  眼状物;  视角; 
+vt. 向…送秋波;  注视;  考虑;  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">farthest vs furthest
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">词语辨析:farther,further与farthest,furthest的用法异同
+1. 表示距离时，四个词都可用。如：
+I can throw much farther [further] than you. 我可以比你扔得更远。
+What’s the farthest [furthest] distance you’ve ever run? 你跑过最远的距离是多少?
+2. 若用于引申义, 表示“更进一步”、“更多”、“此外”等义，则只能用 further。如：
+We’ll further discuss it. 我们会进一步讨论它。
+Are there any further questions? 还有问题吗?
+For further information write to the above address. 若需了解进一步的情况，请写信至以上地址。
+The house isn’t big enough for us, and further, it’s too far from the town. 这座房子对我们来说不够大，而且离城也太远。
+3. further 可用作动词，意为“增进”、“推进”等(其他几个词一般不这样用)。如：
+His support furthered my career. 他的支持促进了我的事业。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arthest</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>farthest
+纠错
+英 ['fɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ðɪst] 美 ['fɑrðɪst]
+adv. 最远地（far的最高级）；最大程度地
+adj. 最远的；最久的（far的最高级）
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. 最远地；最大程度地（far的最高级）_x000D_
+adj. 最远的；最遥远的（far的最高级）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最远地；最大程度地（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的最高级）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最远的；最遥远的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的最高级）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">furthest
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纠错
+英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ['fɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ð</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ɪst] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ['fɝ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ð</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ɪst]
+adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最远地；最大程度地（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的一种最高级）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最远的；最遥远的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的一种最高级）
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shower
+纠错
+英 ['ʃaʊə] 美 ['ʃaʊɚ]
+n. 淋浴；（倾泻般出现的）一阵，一大批；阵雨
+vt. 大量地给予；把……弄湿
+vi. 淋浴；下阵雨
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">halt vs suspend pause stop
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">halt(vt vi n)： to prevent someone or something from continuing - used especially in news reports 【syn】 stop
+suspend(vt) to officially stop something from continuing, especially for a short time 
+pause（vi） to stop speaking or doing something for a short time before starting again 
+stop （vt vi）to not walk, move, or travel any more, or to make someone or something do this
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">find vs find out
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">find,find out都含有“寻找、找到”的意思,但其含义和用法却不同.
+1. find意为“找到、发现”,通常指找到或发现具体的东西,也可指偶然发现某物或某种情况,强调的是找的结果.
+Will you find me a pen?你替我找支钢笔好吗?
+He didn’t find his bike.他没找到他的自行车.
+2. find out意为“找出、发现、查明”,多指通过调查、寻问、打听、研究之后“搞清楚、弄明白”,通常含有“经过困难曲折”的含义,指找出较难找到的、无形的、抽象的东西.
+Please find out when the train leaves.请查一下火车什么时候离站.
+Read this passage,and find out the answer to this question.
+读这篇短文,找出这个问题的答案.拓展：
+拓展：
+look for意为“寻找”,是有目的地找,强调“寻找”这一动作.
+I don’t find my pen,I’m looking for it everywhere.
+我没有找到我的钢笔,我正到处找.
+He is looking for his shoes.
+他在找他的鞋子.
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">index
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">arrayList.add(index,element);
+如上所示，jdk使用了index单词。
+index index at which the specified element is to be inserted.
+我：当然是有位置的意思了。
+index 
+纠错
+英 ['ɪndeks] 美 ['ɪndɛks]
+n. 指标；指数；索引；指针
+vi. 做索引
+vt. 指出；编入索引中
+复数 indexes或indices
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">call vs invoke
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉吧。
+两者的区别。
+A在远处，你将其召唤过来，这就是call。有点主动的意思。
+invoke呢？
+    则有些被动的意思。
+    你在路上走着，然后触发了一个地雷，这就有点invoke的使用场所。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">application vs appliance
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">appliance 英[əˈplaɪəns] 美[əˈplaɪəns]
+n. 器具，器械，装置; 家用电器;
+application 英[ˌæplɪˈkeɪʃn] 美[ˌæplɪˈkeʃən]
+n. 适用，应用，运用; 申请，请求，申请表格; 勤勉，用功; 敷用，敷用药;
+我：感觉appliance是形容实体的东西；application则用来表示非物理之类的内容，比如android application.
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">termination vs end
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如下两条均来自作业帮。这两种解释不一致哇。有出入。
+重要说明作为终点的区别,其他自己应该知道
+termination 不是物理上的终点 如合同的到期等
+end 一般为物理上的终点 如 街道的尽头
+termination常常用来指运动的物体的停止。
+end是泛指任何东西事情的停止/结束
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -26457,16 +27809,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D3798"/>
+  <dimension ref="A3:D3799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView topLeftCell="A3430" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3382" sqref="A3382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -26717,7 +28069,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="40.5">
+    <row r="37" spans="1:2" ht="27">
       <c r="A37" t="s">
         <v>6156</v>
       </c>
@@ -26781,7 +28133,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="67.5">
+    <row r="46" spans="1:2" ht="54">
       <c r="A46" t="s">
         <v>2339</v>
       </c>
@@ -26789,7 +28141,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="40.5">
+    <row r="47" spans="1:2" ht="27">
       <c r="A47" t="s">
         <v>3359</v>
       </c>
@@ -27858,7 +29210,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="40.5">
+    <row r="213" spans="1:2" ht="27">
       <c r="A213" t="s">
         <v>2557</v>
       </c>
@@ -27925,7 +29277,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="40.5">
+    <row r="222" spans="1:2" ht="27">
       <c r="A222" t="s">
         <v>2574</v>
       </c>
@@ -28813,7 +30165,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="67.5">
+    <row r="354" spans="1:2" ht="54">
       <c r="A354" t="s">
         <v>2770</v>
       </c>
@@ -29096,7 +30448,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="40.5">
+    <row r="394" spans="1:2" ht="27">
       <c r="A394" t="s">
         <v>2827</v>
       </c>
@@ -29248,7 +30600,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="40.5">
+    <row r="415" spans="1:2" ht="27">
       <c r="A415" t="s">
         <v>3559</v>
       </c>
@@ -29438,7 +30790,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="40.5">
+    <row r="445" spans="1:2" ht="27">
       <c r="A445" t="s">
         <v>2898</v>
       </c>
@@ -29574,7 +30926,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="40.5">
+    <row r="465" spans="1:2" ht="27">
       <c r="A465" t="s">
         <v>2929</v>
       </c>
@@ -29925,7 +31277,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="40.5">
+    <row r="521" spans="1:2" ht="27">
       <c r="A521" t="s">
         <v>3002</v>
       </c>
@@ -29982,7 +31334,7 @@
     <row r="529" spans="1:2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:2" ht="67.5">
+    <row r="530" spans="1:2" ht="54">
       <c r="A530" t="s">
         <v>3009</v>
       </c>
@@ -30216,7 +31568,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="40.5">
+    <row r="570" spans="1:2" ht="27">
       <c r="A570" t="s">
         <v>3059</v>
       </c>
@@ -30734,7 +32086,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="54">
+    <row r="654" spans="1:2" ht="40.5">
       <c r="A654" t="s">
         <v>3068</v>
       </c>
@@ -31584,7 +32936,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="40.5">
+    <row r="787" spans="1:2" ht="27">
       <c r="A787" t="s">
         <v>3319</v>
       </c>
@@ -31689,7 +33041,7 @@
     <row r="802" spans="1:2">
       <c r="B802" s="3"/>
     </row>
-    <row r="803" spans="1:2" ht="40.5">
+    <row r="803" spans="1:2" ht="27">
       <c r="A803" t="s">
         <v>3336</v>
       </c>
@@ -31749,7 +33101,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="817" spans="1:2" ht="40.5">
+    <row r="817" spans="1:2" ht="27">
       <c r="A817" t="s">
         <v>3352</v>
       </c>
@@ -33041,7 +34393,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" ht="40.5">
+    <row r="1031" spans="1:2" ht="27">
       <c r="A1031" t="s">
         <v>4183</v>
       </c>
@@ -34859,7 +36211,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="1324" spans="1:2" ht="40.5">
+    <row r="1324" spans="1:2" ht="27">
       <c r="A1324" t="s">
         <v>4024</v>
       </c>
@@ -35530,7 +36882,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="1426" spans="1:2" ht="54">
+    <row r="1426" spans="1:2" ht="40.5">
       <c r="A1426" t="s">
         <v>2135</v>
       </c>
@@ -37409,7 +38761,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="1707" spans="1:2" ht="40.5">
+    <row r="1707" spans="1:2" ht="27">
       <c r="A1707" t="s">
         <v>4477</v>
       </c>
@@ -37599,7 +38951,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="1734" spans="1:2" ht="67.5">
+    <row r="1734" spans="1:2" ht="54">
       <c r="A1734" t="s">
         <v>4524</v>
       </c>
@@ -38233,7 +39585,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="1826" spans="1:2" ht="40.5">
+    <row r="1826" spans="1:2" ht="27">
       <c r="A1826" t="s">
         <v>1301</v>
       </c>
@@ -38598,7 +39950,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1884" spans="1:2" ht="40.5">
+    <row r="1884" spans="1:2" ht="27">
       <c r="A1884" t="s">
         <v>1197</v>
       </c>
@@ -38742,7 +40094,7 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="1905" spans="1:2" ht="40.5">
+    <row r="1905" spans="1:2" ht="27">
       <c r="A1905" t="s">
         <v>1407</v>
       </c>
@@ -40103,7 +41455,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="2124" spans="1:2" ht="40.5">
+    <row r="2124" spans="1:2" ht="27">
       <c r="A2124" t="s">
         <v>1637</v>
       </c>
@@ -41786,7 +43138,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="2361" spans="1:2" ht="67.5">
+    <row r="2361" spans="1:2" ht="54">
       <c r="A2361" t="s">
         <v>1947</v>
       </c>
@@ -42827,7 +44179,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="2515" spans="1:2" ht="54">
+    <row r="2515" spans="1:2" ht="40.5">
       <c r="A2515" t="s">
         <v>2162</v>
       </c>
@@ -44833,7 +46185,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="2822" spans="1:4" ht="54">
+    <row r="2822" spans="1:4" ht="40.5">
       <c r="A2822" t="s">
         <v>306</v>
       </c>
@@ -45227,7 +46579,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="2879" spans="1:2" ht="40.5">
+    <row r="2879" spans="1:2" ht="27">
       <c r="A2879" t="s">
         <v>5625</v>
       </c>
@@ -47092,7 +48444,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="3168" spans="1:2" ht="54">
+    <row r="3168" spans="1:2" ht="40.5">
       <c r="A3168" t="s">
         <v>5710</v>
       </c>
@@ -47807,7 +49159,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="3276" spans="1:2" ht="54">
+    <row r="3276" spans="1:2" ht="40.5">
       <c r="A3276" t="s">
         <v>5762</v>
       </c>
@@ -48607,8 +49959,8 @@
       </c>
     </row>
     <row r="3391" spans="1:2">
-      <c r="A3391" t="s">
-        <v>1103</v>
+      <c r="A3391" s="10" t="s">
+        <v>6173</v>
       </c>
       <c r="B3391" t="s">
         <v>1104</v>
@@ -48694,2576 +50046,5131 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="3403" spans="1:2">
-      <c r="A3403" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B3403" t="s">
+    <row r="3403" spans="1:2" ht="243">
+      <c r="A3403" s="12" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B3403" s="3" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2">
+      <c r="A3404" s="10" t="s">
+        <v>6171</v>
+      </c>
+      <c r="B3404" t="s">
         <v>1130</v>
-      </c>
-    </row>
-    <row r="3404" spans="1:2">
-      <c r="A3404" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B3404" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
       <c r="A3405" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B3405" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2">
+      <c r="A3406" t="s">
         <v>760</v>
       </c>
-      <c r="B3405" t="s">
+      <c r="B3406" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="3407" spans="1:2">
-      <c r="A3407" t="s">
+    <row r="3408" spans="1:2">
+      <c r="A3408" t="s">
         <v>2349</v>
       </c>
-      <c r="B3407" t="s">
+      <c r="B3408" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="3409" spans="1:2">
-      <c r="A3409" t="s">
+    <row r="3410" spans="1:2">
+      <c r="A3410" t="s">
         <v>5797</v>
       </c>
-      <c r="B3409" t="s">
+      <c r="B3410" t="s">
         <v>5798</v>
       </c>
     </row>
-    <row r="3411" spans="1:2">
-      <c r="A3411" s="12" t="s">
+    <row r="3412" spans="1:2">
+      <c r="A3412" s="12" t="s">
         <v>5799</v>
       </c>
-      <c r="B3411" s="11" t="s">
+      <c r="B3412" s="11" t="s">
         <v>5800</v>
       </c>
     </row>
-    <row r="3412" spans="1:2">
-      <c r="A3412" s="11" t="s">
+    <row r="3413" spans="1:2">
+      <c r="A3413" s="11" t="s">
         <v>5801</v>
       </c>
-      <c r="B3412" t="s">
+      <c r="B3413" t="s">
         <v>5802</v>
       </c>
     </row>
-    <row r="3413" spans="1:2">
-      <c r="A3413" t="s">
+    <row r="3414" spans="1:2">
+      <c r="A3414" t="s">
         <v>5803</v>
       </c>
-      <c r="B3413" t="s">
+      <c r="B3414" t="s">
         <v>5804</v>
       </c>
     </row>
-    <row r="3414" spans="1:2">
-      <c r="A3414" s="12" t="s">
+    <row r="3415" spans="1:2">
+      <c r="A3415" s="12" t="s">
         <v>5805</v>
       </c>
-      <c r="B3414" s="11" t="s">
+      <c r="B3415" s="11" t="s">
         <v>5806</v>
       </c>
     </row>
-    <row r="3416" spans="1:2">
-      <c r="A3416" t="s">
+    <row r="3417" spans="1:2">
+      <c r="A3417" t="s">
         <v>1512</v>
       </c>
-      <c r="B3416" t="s">
+      <c r="B3417" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="3417" spans="1:2" ht="40.5">
-      <c r="A3417" t="s">
+    <row r="3418" spans="1:2" ht="40.5">
+      <c r="A3418" t="s">
         <v>3025</v>
       </c>
-      <c r="B3417" s="3" t="s">
+      <c r="B3418" s="3" t="s">
         <v>5807</v>
       </c>
     </row>
-    <row r="3418" spans="1:2" ht="27">
-      <c r="A3418" t="s">
+    <row r="3419" spans="1:2" ht="27">
+      <c r="A3419" t="s">
         <v>5808</v>
       </c>
-      <c r="B3418" s="3" t="s">
+      <c r="B3419" s="3" t="s">
         <v>5809</v>
       </c>
     </row>
-    <row r="3419" spans="1:2">
-      <c r="A3419" t="s">
+    <row r="3420" spans="1:2">
+      <c r="A3420" t="s">
         <v>5810</v>
       </c>
-      <c r="B3419" t="s">
+      <c r="B3420" t="s">
         <v>5811</v>
-      </c>
-    </row>
-    <row r="3421" spans="1:2">
-      <c r="A3421" t="s">
-        <v>4501</v>
-      </c>
-      <c r="B3421" t="s">
-        <v>5812</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
       <c r="A3422" t="s">
-        <v>2311</v>
+        <v>4501</v>
       </c>
       <c r="B3422" t="s">
-        <v>2312</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
       <c r="A3423" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B3423" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2">
+      <c r="A3424" t="s">
         <v>5813</v>
       </c>
-      <c r="B3423" t="s">
+      <c r="B3424" t="s">
         <v>5814</v>
       </c>
     </row>
-    <row r="3425" spans="1:2">
-      <c r="A3425" s="11" t="s">
+    <row r="3426" spans="1:2">
+      <c r="A3426" s="11" t="s">
         <v>5815</v>
-      </c>
-    </row>
-    <row r="3426" spans="1:2">
-      <c r="A3426" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3426" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
       <c r="A3427" t="s">
-        <v>5816</v>
+        <v>74</v>
       </c>
       <c r="B3427" t="s">
-        <v>5817</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
       <c r="A3428" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="B3428" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
       <c r="A3429" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B3429" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2">
+      <c r="A3430" t="s">
         <v>5820</v>
       </c>
-      <c r="B3429" t="s">
+      <c r="B3430" t="s">
         <v>5821</v>
       </c>
     </row>
-    <row r="3430" spans="1:2" ht="27">
-      <c r="A3430" t="s">
+    <row r="3431" spans="1:2" ht="27">
+      <c r="A3431" t="s">
         <v>5822</v>
       </c>
-      <c r="B3430" s="3" t="s">
+      <c r="B3431" s="3" t="s">
         <v>5823</v>
       </c>
     </row>
-    <row r="3433" spans="1:2">
-      <c r="A3433" t="s">
+    <row r="3434" spans="1:2">
+      <c r="A3434" t="s">
         <v>3933</v>
       </c>
-      <c r="B3433" t="s">
+      <c r="B3434" t="s">
         <v>3934</v>
       </c>
     </row>
-    <row r="3434" spans="1:2" ht="27">
-      <c r="A3434" t="s">
+    <row r="3435" spans="1:2" ht="27">
+      <c r="A3435" t="s">
         <v>161</v>
       </c>
-      <c r="B3434" s="3" t="s">
+      <c r="B3435" s="3" t="s">
         <v>5824</v>
       </c>
     </row>
-    <row r="3435" spans="1:2">
-      <c r="B3435" s="3"/>
-    </row>
-    <row r="3437" spans="1:2">
-      <c r="A3437" t="s">
+    <row r="3436" spans="1:2">
+      <c r="B3436" s="3"/>
+    </row>
+    <row r="3438" spans="1:2">
+      <c r="A3438" t="s">
         <v>1362</v>
       </c>
-      <c r="B3437" t="s">
+      <c r="B3438" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="3438" spans="1:2" ht="27">
-      <c r="A3438" t="s">
+    <row r="3439" spans="1:2" ht="27">
+      <c r="A3439" t="s">
         <v>2911</v>
       </c>
-      <c r="B3438" s="3" t="s">
+      <c r="B3439" s="3" t="s">
         <v>5825</v>
-      </c>
-    </row>
-    <row r="3440" spans="1:2">
-      <c r="A3440" t="s">
-        <v>5826</v>
-      </c>
-      <c r="B3440" t="s">
-        <v>5827</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
       <c r="A3441" t="s">
-        <v>209</v>
+        <v>5826</v>
       </c>
       <c r="B3441" t="s">
-        <v>210</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
       <c r="A3442" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3442" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2">
+      <c r="A3443" t="s">
         <v>3006</v>
       </c>
-      <c r="B3442" t="s">
+      <c r="B3443" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="3443" spans="1:2" ht="27">
-      <c r="A3443" t="s">
+    <row r="3444" spans="1:2" ht="27">
+      <c r="A3444" t="s">
         <v>3162</v>
       </c>
-      <c r="B3443" s="3" t="s">
+      <c r="B3444" s="3" t="s">
         <v>5828</v>
-      </c>
-    </row>
-    <row r="3444" spans="1:2">
-      <c r="A3444" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B3444" t="s">
-        <v>2990</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
       <c r="A3445" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B3445" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2">
+      <c r="A3446" t="s">
         <v>4013</v>
       </c>
-      <c r="B3445" t="s">
+      <c r="B3446" t="s">
         <v>4014</v>
       </c>
     </row>
-    <row r="3446" spans="1:2" ht="27">
-      <c r="A3446" t="s">
+    <row r="3447" spans="1:2" ht="27">
+      <c r="A3447" t="s">
         <v>5829</v>
       </c>
-      <c r="B3446" s="3" t="s">
+      <c r="B3447" s="3" t="s">
         <v>5830</v>
-      </c>
-    </row>
-    <row r="3448" spans="1:2">
-      <c r="A3448" t="s">
-        <v>5831</v>
-      </c>
-      <c r="B3448" t="s">
-        <v>5832</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
       <c r="A3449" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B3449" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2">
+      <c r="A3450" t="s">
         <v>1386</v>
       </c>
-      <c r="B3449" t="s">
+      <c r="B3450" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="3450" spans="1:2" ht="27">
-      <c r="A3450" t="s">
+    <row r="3451" spans="1:2" ht="27">
+      <c r="A3451" t="s">
         <v>5833</v>
       </c>
-      <c r="B3450" s="3" t="s">
+      <c r="B3451" s="3" t="s">
         <v>5834</v>
       </c>
     </row>
-    <row r="3451" spans="1:2">
-      <c r="B3451" s="3"/>
-    </row>
     <row r="3452" spans="1:2">
-      <c r="A3452" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B3452" t="s">
-        <v>1487</v>
-      </c>
+      <c r="B3452" s="3"/>
     </row>
     <row r="3453" spans="1:2">
       <c r="A3453" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B3453" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2">
+      <c r="A3454" t="s">
         <v>242</v>
       </c>
-      <c r="B3453" t="s">
+      <c r="B3454" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3454" spans="1:2" ht="27">
-      <c r="A3454" t="s">
+    <row r="3455" spans="1:2" ht="27">
+      <c r="A3455" t="s">
         <v>5835</v>
       </c>
-      <c r="B3454" s="3" t="s">
+      <c r="B3455" s="3" t="s">
         <v>5836</v>
       </c>
     </row>
-    <row r="3455" spans="1:2">
-      <c r="A3455" s="12" t="s">
+    <row r="3456" spans="1:2">
+      <c r="A3456" s="12" t="s">
         <v>5837</v>
       </c>
-      <c r="B3455" s="3"/>
-    </row>
-    <row r="3456" spans="1:2">
       <c r="B3456" s="3"/>
     </row>
     <row r="3457" spans="1:2">
-      <c r="A3457" t="s">
+      <c r="B3457" s="3"/>
+    </row>
+    <row r="3458" spans="1:2">
+      <c r="A3458" t="s">
         <v>5838</v>
       </c>
-      <c r="B3457" s="3" t="s">
+      <c r="B3458" s="3" t="s">
         <v>5839</v>
       </c>
     </row>
-    <row r="3458" spans="1:2" ht="40.5">
-      <c r="A3458" t="s">
+    <row r="3459" spans="1:2" ht="27">
+      <c r="A3459" t="s">
         <v>5840</v>
       </c>
-      <c r="B3458" s="3" t="s">
+      <c r="B3459" s="3" t="s">
         <v>5841</v>
       </c>
-    </row>
-    <row r="3459" spans="1:2">
-      <c r="B3459" s="3"/>
     </row>
     <row r="3460" spans="1:2">
       <c r="B3460" s="3"/>
     </row>
     <row r="3461" spans="1:2">
-      <c r="A3461" t="s">
+      <c r="B3461" s="3"/>
+    </row>
+    <row r="3462" spans="1:2">
+      <c r="A3462" t="s">
         <v>265</v>
       </c>
-      <c r="B3461" t="s">
+      <c r="B3462" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3462" spans="1:2">
-      <c r="A3462" s="12" t="s">
+    <row r="3463" spans="1:2">
+      <c r="A3463" s="12" t="s">
         <v>5842</v>
       </c>
-      <c r="B3462" s="3" t="s">
+      <c r="B3463" s="3" t="s">
         <v>5843</v>
       </c>
     </row>
-    <row r="3463" spans="1:2">
-      <c r="B3463" s="3"/>
-    </row>
-    <row r="3465" spans="1:2">
-      <c r="A3465" s="11" t="s">
+    <row r="3464" spans="1:2">
+      <c r="B3464" s="3"/>
+    </row>
+    <row r="3466" spans="1:2">
+      <c r="A3466" s="11" t="s">
         <v>5844</v>
-      </c>
-    </row>
-    <row r="3466" spans="1:2">
-      <c r="A3466" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B3466" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
       <c r="A3467" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B3467" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2">
+      <c r="A3468" t="s">
         <v>5845</v>
       </c>
-      <c r="B3467" t="s">
+      <c r="B3468" t="s">
         <v>5846</v>
       </c>
     </row>
-    <row r="3468" spans="1:2">
-      <c r="A3468" s="12" t="s">
+    <row r="3469" spans="1:2">
+      <c r="A3469" s="12" t="s">
         <v>5847</v>
       </c>
-      <c r="B3468" s="11" t="s">
+      <c r="B3469" s="11" t="s">
         <v>5848</v>
       </c>
     </row>
-    <row r="3471" spans="1:2">
-      <c r="A3471" t="s">
+    <row r="3472" spans="1:2">
+      <c r="A3472" t="s">
         <v>5849</v>
       </c>
-      <c r="B3471" t="s">
+      <c r="B3472" t="s">
         <v>5850</v>
       </c>
     </row>
-    <row r="3472" spans="1:2" ht="40.5">
-      <c r="A3472" t="s">
+    <row r="3473" spans="1:2" ht="40.5">
+      <c r="A3473" t="s">
         <v>5851</v>
       </c>
-      <c r="B3472" s="3" t="s">
+      <c r="B3473" s="3" t="s">
         <v>5852</v>
       </c>
     </row>
-    <row r="3473" spans="1:2" ht="54">
-      <c r="A3473" t="s">
+    <row r="3474" spans="1:2" ht="54">
+      <c r="A3474" t="s">
         <v>5853</v>
       </c>
-      <c r="B3473" s="3" t="s">
+      <c r="B3474" s="3" t="s">
         <v>5854</v>
-      </c>
-    </row>
-    <row r="3474" spans="1:2" ht="27">
-      <c r="A3474" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B3474" s="3" t="s">
-        <v>5855</v>
       </c>
     </row>
     <row r="3475" spans="1:2" ht="27">
       <c r="A3475" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B3475" s="3" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2" ht="27">
+      <c r="A3476" t="s">
         <v>273</v>
       </c>
-      <c r="B3475" s="3" t="s">
+      <c r="B3476" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3476" spans="1:2">
-      <c r="A3476" t="s">
+    <row r="3477" spans="1:2">
+      <c r="A3477" t="s">
         <v>277</v>
       </c>
-      <c r="B3476" t="s">
+      <c r="B3477" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3477" spans="1:2" ht="40.5">
-      <c r="A3477" t="s">
+    <row r="3478" spans="1:2" ht="40.5">
+      <c r="A3478" t="s">
         <v>5856</v>
       </c>
-      <c r="B3477" s="3" t="s">
+      <c r="B3478" s="3" t="s">
         <v>5857</v>
       </c>
     </row>
-    <row r="3478" spans="1:2" ht="27">
-      <c r="A3478" t="s">
+    <row r="3479" spans="1:2" ht="27">
+      <c r="A3479" t="s">
         <v>5858</v>
       </c>
-      <c r="B3478" s="3" t="s">
+      <c r="B3479" s="3" t="s">
         <v>5859</v>
       </c>
     </row>
-    <row r="3479" spans="1:2">
-      <c r="A3479" t="s">
+    <row r="3480" spans="1:2">
+      <c r="A3480" t="s">
         <v>3617</v>
       </c>
-      <c r="B3479" t="s">
+      <c r="B3480" t="s">
         <v>3618</v>
-      </c>
-    </row>
-    <row r="3481" spans="1:2">
-      <c r="A3481" s="12" t="s">
-        <v>5860</v>
-      </c>
-      <c r="B3481" s="11" t="s">
-        <v>5861</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
       <c r="A3482" s="12" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B3482" s="11" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2">
+      <c r="A3483" s="12" t="s">
         <v>5862</v>
       </c>
-      <c r="B3482" s="11" t="s">
+      <c r="B3483" s="11" t="s">
         <v>5863</v>
       </c>
     </row>
-    <row r="3483" spans="1:2">
-      <c r="A3483" t="s">
+    <row r="3484" spans="1:2">
+      <c r="A3484" t="s">
         <v>3341</v>
       </c>
-      <c r="B3483" t="s">
+      <c r="B3484" t="s">
         <v>3342</v>
-      </c>
-    </row>
-    <row r="3484" spans="1:2" ht="27">
-      <c r="A3484" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B3484" s="3" t="s">
-        <v>5864</v>
       </c>
     </row>
     <row r="3485" spans="1:2" ht="27">
       <c r="A3485" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B3485" s="3" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2" ht="27">
+      <c r="A3486" t="s">
         <v>5865</v>
       </c>
-      <c r="B3485" s="3" t="s">
+      <c r="B3486" s="3" t="s">
         <v>5866</v>
       </c>
     </row>
-    <row r="3486" spans="1:2">
-      <c r="A3486" s="12" t="s">
+    <row r="3487" spans="1:2">
+      <c r="A3487" s="12" t="s">
         <v>5867</v>
       </c>
-      <c r="B3486" s="3" t="s">
+      <c r="B3487" s="3" t="s">
         <v>5868</v>
       </c>
     </row>
-    <row r="3487" spans="1:2">
-      <c r="A3487" s="12"/>
-      <c r="B3487" s="3"/>
-    </row>
     <row r="3488" spans="1:2">
-      <c r="A3488" t="s">
-        <v>5869</v>
-      </c>
+      <c r="A3488" s="12"/>
       <c r="B3488" s="3"/>
     </row>
     <row r="3489" spans="1:2">
       <c r="A3489" t="s">
-        <v>5870</v>
-      </c>
-      <c r="B3489" t="s">
-        <v>5871</v>
-      </c>
+        <v>5869</v>
+      </c>
+      <c r="B3489" s="3"/>
     </row>
     <row r="3490" spans="1:2">
       <c r="A3490" t="s">
-        <v>2849</v>
+        <v>5870</v>
       </c>
       <c r="B3490" t="s">
-        <v>2850</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
       <c r="A3491" t="s">
-        <v>1467</v>
+        <v>2849</v>
       </c>
       <c r="B3491" t="s">
-        <v>1468</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
       <c r="A3492" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B3492" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2">
+      <c r="A3493" t="s">
         <v>283</v>
       </c>
-      <c r="B3492" t="s">
+      <c r="B3493" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3494" spans="1:2">
-      <c r="B3494" s="3"/>
-    </row>
-    <row r="3497" spans="1:2">
-      <c r="A3497" s="11"/>
-      <c r="B3497" s="3"/>
-    </row>
-    <row r="3498" spans="1:2" ht="27">
-      <c r="A3498" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3498" s="3" t="s">
-        <v>417</v>
-      </c>
+    <row r="3495" spans="1:2">
+      <c r="B3495" s="3"/>
+    </row>
+    <row r="3498" spans="1:2">
+      <c r="A3498" s="11"/>
+      <c r="B3498" s="3"/>
     </row>
     <row r="3499" spans="1:2" ht="27">
       <c r="A3499" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3499" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2" ht="27">
+      <c r="A3500" t="s">
         <v>5872</v>
       </c>
-      <c r="B3499" s="3" t="s">
+      <c r="B3500" s="3" t="s">
         <v>5873</v>
       </c>
     </row>
-    <row r="3500" spans="1:2" ht="81">
-      <c r="A3500" t="s">
+    <row r="3501" spans="1:2" ht="81">
+      <c r="A3501" t="s">
         <v>3758</v>
       </c>
-      <c r="B3500" s="3" t="s">
+      <c r="B3501" s="3" t="s">
         <v>5874</v>
       </c>
     </row>
-    <row r="3501" spans="1:2">
-      <c r="A3501" t="s">
+    <row r="3502" spans="1:2">
+      <c r="A3502" t="s">
         <v>5875</v>
       </c>
-      <c r="B3501" t="s">
+      <c r="B3502" t="s">
         <v>5876</v>
       </c>
     </row>
-    <row r="3502" spans="1:2" ht="27">
-      <c r="A3502" t="s">
+    <row r="3503" spans="1:2" ht="27">
+      <c r="A3503" t="s">
         <v>1599</v>
       </c>
-      <c r="B3502" s="3" t="s">
+      <c r="B3503" s="3" t="s">
         <v>5877</v>
       </c>
     </row>
-    <row r="3503" spans="1:2">
-      <c r="B3503" s="3"/>
-    </row>
-    <row r="3505" spans="1:2" ht="54">
-      <c r="A3505" t="s">
+    <row r="3504" spans="1:2">
+      <c r="B3504" s="3"/>
+    </row>
+    <row r="3506" spans="1:2" ht="54">
+      <c r="A3506" t="s">
         <v>3514</v>
       </c>
-      <c r="B3505" s="3" t="s">
+      <c r="B3506" s="3" t="s">
         <v>5878</v>
-      </c>
-    </row>
-    <row r="3506" spans="1:2">
-      <c r="A3506" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3506" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
       <c r="A3507" t="s">
-        <v>5879</v>
+        <v>341</v>
       </c>
       <c r="B3507" t="s">
-        <v>5880</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
       <c r="A3508" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
       <c r="B3508" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
       <c r="A3509" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B3509" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2">
+      <c r="A3510" t="s">
         <v>2270</v>
       </c>
-      <c r="B3509" t="s">
+      <c r="B3510" t="s">
         <v>2271</v>
-      </c>
-    </row>
-    <row r="3510" spans="1:2" ht="27">
-      <c r="A3510" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3510" s="3" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="3511" spans="1:2" ht="27">
       <c r="A3511" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3511" s="3" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2" ht="27">
+      <c r="A3512" t="s">
         <v>5884</v>
       </c>
-      <c r="B3511" s="3" t="s">
+      <c r="B3512" s="3" t="s">
         <v>5885</v>
       </c>
-    </row>
-    <row r="3512" spans="1:2">
-      <c r="B3512" s="3"/>
     </row>
     <row r="3513" spans="1:2">
       <c r="B3513" s="3"/>
     </row>
-    <row r="3514" spans="1:2" ht="27">
-      <c r="A3514" t="s">
+    <row r="3514" spans="1:2">
+      <c r="B3514" s="3"/>
+    </row>
+    <row r="3515" spans="1:2" ht="27">
+      <c r="A3515" t="s">
         <v>2317</v>
       </c>
-      <c r="B3514" s="3" t="s">
+      <c r="B3515" s="3" t="s">
         <v>5886</v>
       </c>
     </row>
-    <row r="3515" spans="1:2" ht="40.5">
-      <c r="A3515" t="s">
+    <row r="3516" spans="1:2" ht="40.5">
+      <c r="A3516" t="s">
         <v>2278</v>
       </c>
-      <c r="B3515" s="3" t="s">
+      <c r="B3516" s="3" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="3516" spans="1:2" ht="27">
-      <c r="A3516" t="s">
+    <row r="3517" spans="1:2" ht="27">
+      <c r="A3517" t="s">
         <v>5887</v>
       </c>
-      <c r="B3516" s="3" t="s">
+      <c r="B3517" s="3" t="s">
         <v>5888</v>
       </c>
     </row>
-    <row r="3517" spans="1:2">
-      <c r="B3517" s="3"/>
-    </row>
-    <row r="3518" spans="1:2" ht="27">
-      <c r="A3518" t="s">
+    <row r="3518" spans="1:2">
+      <c r="B3518" s="3"/>
+    </row>
+    <row r="3519" spans="1:2" ht="27">
+      <c r="A3519" t="s">
         <v>826</v>
       </c>
-      <c r="B3518" s="3" t="s">
+      <c r="B3519" s="3" t="s">
         <v>5889</v>
       </c>
     </row>
-    <row r="3519" spans="1:2" ht="40.5">
-      <c r="A3519" t="s">
+    <row r="3520" spans="1:2" ht="40.5">
+      <c r="A3520" t="s">
         <v>351</v>
       </c>
-      <c r="B3519" s="3" t="s">
+      <c r="B3520" s="3" t="s">
         <v>5890</v>
       </c>
     </row>
-    <row r="3520" spans="1:2" ht="27">
-      <c r="A3520" t="s">
+    <row r="3521" spans="1:2" ht="27">
+      <c r="A3521" t="s">
         <v>5891</v>
       </c>
-      <c r="B3520" s="3" t="s">
+      <c r="B3521" s="3" t="s">
         <v>5892</v>
       </c>
     </row>
-    <row r="3521" spans="1:2">
-      <c r="A3521" t="s">
+    <row r="3522" spans="1:2">
+      <c r="A3522" t="s">
         <v>70</v>
       </c>
-      <c r="B3521" t="s">
+      <c r="B3522" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="3522" spans="1:2" ht="40.5">
-      <c r="A3522" t="s">
-        <v>2561</v>
-      </c>
-      <c r="B3522" s="3" t="s">
-        <v>5893</v>
       </c>
     </row>
     <row r="3523" spans="1:2" ht="27">
       <c r="A3523" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B3523" s="3" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" ht="27">
+      <c r="A3524" t="s">
         <v>4000</v>
       </c>
-      <c r="B3523" s="3" t="s">
+      <c r="B3524" s="3" t="s">
         <v>5894</v>
-      </c>
-    </row>
-    <row r="3524" spans="1:2">
-      <c r="A3524" t="s">
-        <v>4308</v>
-      </c>
-      <c r="B3524" t="s">
-        <v>4309</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
       <c r="A3525" t="s">
-        <v>356</v>
+        <v>4308</v>
       </c>
       <c r="B3525" t="s">
-        <v>357</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
       <c r="A3526" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3526" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2">
+      <c r="A3527" t="s">
         <v>1398</v>
       </c>
-      <c r="B3526" t="s">
+      <c r="B3527" t="s">
         <v>1399</v>
-      </c>
-    </row>
-    <row r="3529" spans="1:2">
-      <c r="A3529" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B3529" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
       <c r="A3530" t="s">
-        <v>3245</v>
+        <v>2425</v>
       </c>
       <c r="B3530" t="s">
-        <v>3246</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
       <c r="A3531" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B3531" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2">
+      <c r="A3532" t="s">
         <v>4069</v>
       </c>
-      <c r="B3531" t="s">
+      <c r="B3532" t="s">
         <v>4070</v>
-      </c>
-    </row>
-    <row r="3532" spans="1:2" ht="27">
-      <c r="A3532" t="s">
-        <v>5895</v>
-      </c>
-      <c r="B3532" s="3" t="s">
-        <v>5896</v>
       </c>
     </row>
     <row r="3533" spans="1:2" ht="27">
       <c r="A3533" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B3533" s="3" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" ht="27">
+      <c r="A3534" t="s">
         <v>2280</v>
       </c>
-      <c r="B3533" s="3" t="s">
+      <c r="B3534" s="3" t="s">
         <v>2281</v>
-      </c>
-    </row>
-    <row r="3534" spans="1:2">
-      <c r="A3534" t="s">
-        <v>5897</v>
-      </c>
-      <c r="B3534" t="s">
-        <v>5898</v>
       </c>
     </row>
     <row r="3535" spans="1:2">
       <c r="A3535" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B3535" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2">
+      <c r="A3536" t="s">
         <v>5899</v>
       </c>
-      <c r="B3535" t="s">
+      <c r="B3536" t="s">
         <v>5900</v>
       </c>
     </row>
-    <row r="3536" spans="1:2">
-      <c r="B3536" s="3"/>
-    </row>
     <row r="3537" spans="1:3">
-      <c r="A3537" t="s">
+      <c r="B3537" s="3"/>
+    </row>
+    <row r="3538" spans="1:3">
+      <c r="A3538" t="s">
         <v>2190</v>
       </c>
-      <c r="B3537" t="s">
+      <c r="B3538" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="3538" spans="1:3" ht="27">
-      <c r="A3538" t="s">
+    <row r="3539" spans="1:3" ht="27">
+      <c r="A3539" t="s">
         <v>386</v>
       </c>
-      <c r="B3538" s="3" t="s">
+      <c r="B3539" s="3" t="s">
         <v>5901</v>
-      </c>
-    </row>
-    <row r="3539" spans="1:3">
-      <c r="A3539" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B3539" t="s">
-        <v>3475</v>
       </c>
     </row>
     <row r="3540" spans="1:3">
       <c r="A3540" t="s">
-        <v>5902</v>
+        <v>3474</v>
       </c>
       <c r="B3540" t="s">
-        <v>5903</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="3541" spans="1:3">
       <c r="A3541" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="B3541" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="3542" spans="1:3">
       <c r="A3542" t="s">
+        <v>5904</v>
+      </c>
+      <c r="B3542" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:3">
+      <c r="A3543" t="s">
         <v>2448</v>
       </c>
-      <c r="B3542" t="s">
+      <c r="B3543" t="s">
         <v>2449</v>
       </c>
     </row>
-    <row r="3544" spans="1:3">
-      <c r="A3544" s="10"/>
-      <c r="B3544" s="10"/>
-    </row>
-    <row r="3545" spans="1:3" ht="40.5">
-      <c r="A3545" t="s">
+    <row r="3545" spans="1:3">
+      <c r="A3545" s="10"/>
+      <c r="B3545" s="10"/>
+    </row>
+    <row r="3546" spans="1:3" ht="40.5">
+      <c r="A3546" t="s">
         <v>3335</v>
       </c>
-      <c r="B3545" s="3" t="s">
+      <c r="B3546" s="3" t="s">
         <v>5906</v>
       </c>
     </row>
-    <row r="3546" spans="1:3">
-      <c r="A3546" t="s">
+    <row r="3547" spans="1:3">
+      <c r="A3547" t="s">
         <v>423</v>
       </c>
-      <c r="B3546" t="s">
+      <c r="B3547" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="3547" spans="1:3">
-      <c r="B3547" s="3"/>
     </row>
     <row r="3548" spans="1:3">
       <c r="B3548" s="3"/>
     </row>
     <row r="3549" spans="1:3">
-      <c r="A3549" t="s">
+      <c r="B3549" s="3"/>
+    </row>
+    <row r="3550" spans="1:3">
+      <c r="A3550" t="s">
         <v>3884</v>
       </c>
-      <c r="B3549" t="s">
+      <c r="B3550" t="s">
         <v>3885</v>
       </c>
     </row>
-    <row r="3550" spans="1:3">
-      <c r="A3550" s="12" t="s">
+    <row r="3551" spans="1:3">
+      <c r="A3551" s="12" t="s">
         <v>5907</v>
       </c>
-      <c r="B3550" s="3" t="s">
+      <c r="B3551" s="3" t="s">
         <v>5908</v>
       </c>
     </row>
-    <row r="3551" spans="1:3" ht="27">
-      <c r="A3551" t="s">
+    <row r="3552" spans="1:3" ht="27">
+      <c r="A3552" t="s">
         <v>5909</v>
       </c>
-      <c r="B3551" s="3" t="s">
+      <c r="B3552" s="3" t="s">
         <v>5910</v>
       </c>
-      <c r="C3551" t="s">
+      <c r="C3552" t="s">
         <v>5911</v>
-      </c>
-    </row>
-    <row r="3552" spans="1:3">
-      <c r="A3552" t="s">
-        <v>5912</v>
-      </c>
-      <c r="B3552" t="s">
-        <v>5913</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
       <c r="A3553" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B3553" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2">
+      <c r="A3554" t="s">
         <v>5914</v>
       </c>
-      <c r="B3553" t="s">
+      <c r="B3554" t="s">
         <v>5915</v>
       </c>
     </row>
-    <row r="3554" spans="1:2">
-      <c r="A3554" s="12" t="s">
+    <row r="3555" spans="1:2">
+      <c r="A3555" s="12" t="s">
         <v>5916</v>
       </c>
-      <c r="B3554" s="11" t="s">
+      <c r="B3555" s="11" t="s">
         <v>5917</v>
-      </c>
-    </row>
-    <row r="3556" spans="1:2" ht="27">
-      <c r="A3556" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B3556" s="3" t="s">
-        <v>5918</v>
       </c>
     </row>
     <row r="3557" spans="1:2" ht="27">
       <c r="A3557" t="s">
-        <v>3486</v>
+        <v>1762</v>
       </c>
       <c r="B3557" s="3" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="3558" spans="1:2" ht="27">
       <c r="A3558" t="s">
-        <v>29</v>
+        <v>3486</v>
       </c>
       <c r="B3558" s="3" t="s">
-        <v>5920</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="3559" spans="1:2" ht="27">
       <c r="A3559" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3559" s="3" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" ht="27">
+      <c r="A3560" t="s">
         <v>3455</v>
       </c>
-      <c r="B3559" s="3" t="s">
+      <c r="B3560" s="3" t="s">
         <v>5921</v>
-      </c>
-    </row>
-    <row r="3560" spans="1:2">
-      <c r="A3560" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B3560" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
       <c r="A3561" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2">
+      <c r="A3562" t="s">
         <v>5922</v>
       </c>
-      <c r="B3561" t="s">
+      <c r="B3562" t="s">
         <v>5923</v>
       </c>
     </row>
-    <row r="3562" spans="1:2" ht="40.5">
-      <c r="A3562" t="s">
+    <row r="3563" spans="1:2" ht="40.5">
+      <c r="A3563" t="s">
         <v>1440</v>
       </c>
-      <c r="B3562" s="3" t="s">
+      <c r="B3563" s="3" t="s">
         <v>5924</v>
       </c>
     </row>
-    <row r="3563" spans="1:2" ht="54">
-      <c r="A3563" s="14" t="s">
+    <row r="3564" spans="1:2" ht="54">
+      <c r="A3564" s="14" t="s">
         <v>5925</v>
       </c>
-      <c r="B3563" t="s">
+      <c r="B3564" t="s">
         <v>3864</v>
       </c>
     </row>
-    <row r="3564" spans="1:2" ht="40.5">
-      <c r="A3564" t="s">
+    <row r="3565" spans="1:2" ht="40.5">
+      <c r="A3565" t="s">
         <v>2357</v>
       </c>
-      <c r="B3564" s="3" t="s">
+      <c r="B3565" s="3" t="s">
         <v>5926</v>
-      </c>
-    </row>
-    <row r="3565" spans="1:2">
-      <c r="A3565" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3565" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
       <c r="A3566" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2">
+      <c r="A3567" t="s">
         <v>5927</v>
       </c>
-      <c r="B3566" t="s">
+      <c r="B3567" t="s">
         <v>5928</v>
       </c>
     </row>
-    <row r="3569" spans="1:2">
-      <c r="A3569" s="12"/>
-    </row>
-    <row r="3570" spans="1:2" ht="27">
-      <c r="A3570" t="s">
+    <row r="3570" spans="1:2">
+      <c r="A3570" s="12"/>
+    </row>
+    <row r="3571" spans="1:2" ht="27">
+      <c r="A3571" t="s">
         <v>26</v>
       </c>
-      <c r="B3570" s="3" t="s">
+      <c r="B3571" s="3" t="s">
         <v>5929</v>
-      </c>
-    </row>
-    <row r="3571" spans="1:2">
-      <c r="A3571" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B3571" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
       <c r="A3572" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2">
+      <c r="A3573" t="s">
         <v>887</v>
       </c>
-      <c r="B3572" t="s">
+      <c r="B3573" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="3573" spans="1:2" ht="27">
-      <c r="A3573" t="s">
+    <row r="3574" spans="1:2" ht="27">
+      <c r="A3574" t="s">
         <v>2286</v>
       </c>
-      <c r="B3573" s="3" t="s">
+      <c r="B3574" s="3" t="s">
         <v>5930</v>
       </c>
     </row>
-    <row r="3574" spans="1:2">
-      <c r="A3574" t="s">
+    <row r="3575" spans="1:2">
+      <c r="A3575" t="s">
         <v>5931</v>
       </c>
-      <c r="B3574" t="s">
+      <c r="B3575" t="s">
         <v>5932</v>
       </c>
     </row>
-    <row r="3575" spans="1:2" ht="27">
-      <c r="A3575" t="s">
+    <row r="3576" spans="1:2" ht="27">
+      <c r="A3576" t="s">
         <v>2587</v>
       </c>
-      <c r="B3575" s="3" t="s">
+      <c r="B3576" s="3" t="s">
         <v>5933</v>
       </c>
     </row>
-    <row r="3576" spans="1:2">
-      <c r="A3576" t="s">
+    <row r="3577" spans="1:2">
+      <c r="A3577" t="s">
         <v>3438</v>
       </c>
-      <c r="B3576" t="s">
+      <c r="B3577" t="s">
         <v>3439</v>
-      </c>
-    </row>
-    <row r="3577" spans="1:2" ht="27">
-      <c r="A3577" t="s">
-        <v>3339</v>
-      </c>
-      <c r="B3577" s="3" t="s">
-        <v>5934</v>
       </c>
     </row>
     <row r="3578" spans="1:2" ht="27">
       <c r="A3578" t="s">
-        <v>5935</v>
+        <v>3339</v>
       </c>
       <c r="B3578" s="3" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="3579" spans="1:2" ht="27">
       <c r="A3579" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B3579" s="3" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" ht="27">
+      <c r="A3580" t="s">
         <v>3247</v>
       </c>
-      <c r="B3579" s="3" t="s">
+      <c r="B3580" s="3" t="s">
         <v>5937</v>
       </c>
     </row>
-    <row r="3580" spans="1:2">
-      <c r="B3580" s="3"/>
-    </row>
     <row r="3581" spans="1:2">
-      <c r="A3581" t="s">
-        <v>4399</v>
-      </c>
-      <c r="B3581" t="s">
-        <v>4400</v>
-      </c>
+      <c r="B3581" s="3"/>
     </row>
     <row r="3582" spans="1:2">
       <c r="A3582" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2">
+      <c r="A3583" t="s">
         <v>1811</v>
       </c>
-      <c r="B3582" t="s">
+      <c r="B3583" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="3584" spans="1:2" ht="40.5">
-      <c r="A3584" t="s">
+    <row r="3585" spans="1:2" ht="27">
+      <c r="A3585" t="s">
         <v>3962</v>
       </c>
-      <c r="B3584" s="3" t="s">
+      <c r="B3585" s="3" t="s">
         <v>5938</v>
       </c>
     </row>
-    <row r="3585" spans="1:2" ht="40.5">
-      <c r="A3585" s="10" t="s">
+    <row r="3586" spans="1:2" ht="40.5">
+      <c r="A3586" s="10" t="s">
         <v>2273</v>
       </c>
-      <c r="B3585" s="3" t="s">
+      <c r="B3586" s="3" t="s">
         <v>5939</v>
       </c>
     </row>
-    <row r="3586" spans="1:2">
-      <c r="A3586" t="s">
+    <row r="3587" spans="1:2">
+      <c r="A3587" t="s">
         <v>3487</v>
       </c>
-      <c r="B3586" t="s">
+      <c r="B3587" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="3587" spans="1:2" ht="27">
-      <c r="A3587" t="s">
+    <row r="3588" spans="1:2" ht="27">
+      <c r="A3588" t="s">
         <v>1806</v>
       </c>
-      <c r="B3587" s="3" t="s">
+      <c r="B3588" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="3588" spans="1:2">
-      <c r="A3588" t="s">
+    <row r="3589" spans="1:2">
+      <c r="A3589" t="s">
         <v>5940</v>
       </c>
-      <c r="B3588" t="s">
+      <c r="B3589" t="s">
         <v>5941</v>
       </c>
     </row>
-    <row r="3589" spans="1:2" ht="27">
-      <c r="A3589" t="s">
+    <row r="3590" spans="1:2" ht="27">
+      <c r="A3590" t="s">
         <v>1691</v>
       </c>
-      <c r="B3589" s="3" t="s">
+      <c r="B3590" s="3" t="s">
         <v>5942</v>
       </c>
     </row>
-    <row r="3590" spans="1:2">
-      <c r="A3590" s="12"/>
-    </row>
-    <row r="3591" spans="1:2" ht="27">
-      <c r="A3591" t="s">
+    <row r="3591" spans="1:2">
+      <c r="A3591" s="12"/>
+    </row>
+    <row r="3592" spans="1:2" ht="27">
+      <c r="A3592" t="s">
         <v>5943</v>
       </c>
-      <c r="B3591" s="3" t="s">
+      <c r="B3592" s="3" t="s">
         <v>5944</v>
-      </c>
-    </row>
-    <row r="3596" spans="1:2">
-      <c r="A3596" t="s">
-        <v>1923</v>
-      </c>
-      <c r="B3596" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
       <c r="A3597" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2">
+      <c r="A3598" t="s">
         <v>1911</v>
       </c>
-      <c r="B3597" t="s">
+      <c r="B3598" t="s">
         <v>1912</v>
-      </c>
-    </row>
-    <row r="3599" spans="1:2">
-      <c r="A3599" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B3599" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
       <c r="A3600" t="s">
-        <v>3659</v>
+        <v>1937</v>
       </c>
       <c r="B3600" t="s">
-        <v>3660</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
       <c r="A3601" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2">
+      <c r="A3602" t="s">
         <v>5945</v>
       </c>
-      <c r="B3601" t="s">
+      <c r="B3602" t="s">
         <v>5946</v>
       </c>
     </row>
-    <row r="3602" spans="1:2" ht="40.5">
-      <c r="A3602" t="s">
+    <row r="3603" spans="1:2" ht="40.5">
+      <c r="A3603" t="s">
         <v>584</v>
       </c>
-      <c r="B3602" s="3" t="s">
+      <c r="B3603" s="3" t="s">
         <v>5947</v>
       </c>
     </row>
-    <row r="3603" spans="1:2">
-      <c r="A3603" t="s">
+    <row r="3604" spans="1:2">
+      <c r="A3604" t="s">
         <v>1954</v>
       </c>
-      <c r="B3603" t="s">
+      <c r="B3604" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="3605" spans="1:2">
-      <c r="A3605" t="s">
+    <row r="3606" spans="1:2">
+      <c r="A3606" t="s">
         <v>5948</v>
       </c>
-      <c r="B3605" t="s">
+      <c r="B3606" t="s">
         <v>5949</v>
       </c>
     </row>
-    <row r="3606" spans="1:2" ht="27">
-      <c r="A3606" t="s">
+    <row r="3607" spans="1:2" ht="27">
+      <c r="A3607" t="s">
         <v>5950</v>
       </c>
-      <c r="B3606" s="3" t="s">
+      <c r="B3607" s="3" t="s">
         <v>5951</v>
       </c>
     </row>
-    <row r="3607" spans="1:2">
-      <c r="A3607" t="s">
+    <row r="3608" spans="1:2">
+      <c r="A3608" t="s">
         <v>5952</v>
       </c>
-      <c r="B3607" t="s">
+      <c r="B3608" t="s">
         <v>5953</v>
-      </c>
-    </row>
-    <row r="3608" spans="1:2" ht="27">
-      <c r="A3608" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B3608" s="3" t="s">
-        <v>5954</v>
       </c>
     </row>
     <row r="3609" spans="1:2" ht="27">
       <c r="A3609" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B3609" s="3" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" ht="27">
+      <c r="A3610" t="s">
         <v>1964</v>
       </c>
-      <c r="B3609" s="3" t="s">
+      <c r="B3610" s="3" t="s">
         <v>5955</v>
       </c>
     </row>
-    <row r="3610" spans="1:2">
-      <c r="A3610" t="s">
+    <row r="3611" spans="1:2">
+      <c r="A3611" t="s">
         <v>5956</v>
       </c>
-      <c r="B3610" t="s">
+      <c r="B3611" t="s">
         <v>5957</v>
       </c>
     </row>
-    <row r="3612" spans="1:2" ht="27">
-      <c r="A3612" t="s">
+    <row r="3613" spans="1:2" ht="27">
+      <c r="A3613" t="s">
         <v>1587</v>
       </c>
-      <c r="B3612" s="3" t="s">
+      <c r="B3613" s="3" t="s">
         <v>5958</v>
       </c>
     </row>
-    <row r="3613" spans="1:2" ht="40.5">
-      <c r="A3613" t="s">
+    <row r="3614" spans="1:2" ht="40.5">
+      <c r="A3614" t="s">
         <v>5959</v>
       </c>
-      <c r="B3613" s="3" t="s">
+      <c r="B3614" s="3" t="s">
         <v>5960</v>
       </c>
     </row>
-    <row r="3614" spans="1:2">
-      <c r="B3614" s="3"/>
-    </row>
     <row r="3615" spans="1:2">
-      <c r="A3615" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B3615" t="s">
-        <v>1409</v>
-      </c>
+      <c r="B3615" s="3"/>
     </row>
     <row r="3616" spans="1:2">
       <c r="A3616" t="s">
-        <v>3113</v>
+        <v>1408</v>
       </c>
       <c r="B3616" t="s">
-        <v>3114</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
       <c r="A3617" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2">
+      <c r="A3618" t="s">
         <v>2007</v>
       </c>
-      <c r="B3617" t="s">
+      <c r="B3618" t="s">
         <v>2008</v>
-      </c>
-    </row>
-    <row r="3619" spans="1:2">
-      <c r="A3619" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B3619" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
       <c r="A3620" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2">
+      <c r="A3621" t="s">
         <v>5961</v>
       </c>
-      <c r="B3620" t="s">
+      <c r="B3621" t="s">
         <v>5962</v>
-      </c>
-    </row>
-    <row r="3623" spans="1:2">
-      <c r="A3623" t="s">
-        <v>5963</v>
-      </c>
-      <c r="B3623" t="s">
-        <v>5964</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
       <c r="A3624" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2">
+      <c r="A3625" t="s">
         <v>3655</v>
       </c>
-      <c r="B3624" t="s">
+      <c r="B3625" t="s">
         <v>3656</v>
       </c>
     </row>
-    <row r="3625" spans="1:2" ht="40.5">
-      <c r="A3625" t="s">
+    <row r="3626" spans="1:2" ht="40.5">
+      <c r="A3626" t="s">
         <v>5965</v>
       </c>
-      <c r="B3625" s="3" t="s">
+      <c r="B3626" s="3" t="s">
         <v>5966</v>
-      </c>
-    </row>
-    <row r="3626" spans="1:2">
-      <c r="A3626" t="s">
-        <v>5967</v>
-      </c>
-      <c r="B3626" t="s">
-        <v>5968</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
       <c r="A3627" t="s">
-        <v>3312</v>
+        <v>5967</v>
       </c>
       <c r="B3627" t="s">
-        <v>3313</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
       <c r="A3628" t="s">
-        <v>2054</v>
+        <v>3312</v>
       </c>
       <c r="B3628" t="s">
-        <v>2055</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
       <c r="A3629" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2">
+      <c r="A3630" t="s">
         <v>1434</v>
       </c>
-      <c r="B3629" t="s">
+      <c r="B3630" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="3632" spans="1:2">
-      <c r="B3632" s="3"/>
-    </row>
     <row r="3633" spans="1:2">
-      <c r="A3633" t="s">
-        <v>3088</v>
-      </c>
+      <c r="B3633" s="3"/>
     </row>
     <row r="3634" spans="1:2">
       <c r="A3634" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B3634" t="s">
-        <v>2032</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
       <c r="A3635" t="s">
-        <v>5969</v>
+        <v>2031</v>
       </c>
       <c r="B3635" t="s">
-        <v>5970</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
       <c r="A3636" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="B3636" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
       <c r="A3637" t="s">
-        <v>1625</v>
+        <v>5971</v>
       </c>
       <c r="B3637" t="s">
-        <v>1626</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
       <c r="A3638" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2">
+      <c r="A3639" t="s">
         <v>5973</v>
       </c>
-      <c r="B3638" t="s">
+      <c r="B3639" t="s">
         <v>5974</v>
       </c>
     </row>
-    <row r="3639" spans="1:2" ht="27">
-      <c r="A3639" t="s">
+    <row r="3640" spans="1:2" ht="27">
+      <c r="A3640" t="s">
         <v>5975</v>
       </c>
-      <c r="B3639" s="3" t="s">
+      <c r="B3640" s="3" t="s">
         <v>5976</v>
-      </c>
-    </row>
-    <row r="3641" spans="1:2" ht="27">
-      <c r="A3641" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B3641" s="3" t="s">
-        <v>5977</v>
       </c>
     </row>
     <row r="3642" spans="1:2" ht="27">
       <c r="A3642" t="s">
-        <v>5978</v>
+        <v>2185</v>
       </c>
       <c r="B3642" s="3" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="3643" spans="1:2" ht="27">
       <c r="A3643" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B3643" s="3" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" ht="27">
+      <c r="A3644" t="s">
         <v>5980</v>
       </c>
-      <c r="B3643" s="3" t="s">
+      <c r="B3644" s="3" t="s">
         <v>5981</v>
       </c>
     </row>
-    <row r="3644" spans="1:2" ht="54">
-      <c r="A3644" t="s">
+    <row r="3645" spans="1:2" ht="54">
+      <c r="A3645" t="s">
         <v>697</v>
       </c>
-      <c r="B3644" s="3" t="s">
+      <c r="B3645" s="3" t="s">
         <v>5982</v>
       </c>
     </row>
-    <row r="3645" spans="1:2">
-      <c r="A3645" s="12" t="s">
+    <row r="3646" spans="1:2">
+      <c r="A3646" s="12" t="s">
         <v>5983</v>
       </c>
-      <c r="B3645" s="3"/>
-    </row>
-    <row r="3647" spans="1:2">
-      <c r="A3647" t="s">
+      <c r="B3646" s="3"/>
+    </row>
+    <row r="3648" spans="1:2">
+      <c r="A3648" t="s">
         <v>5984</v>
       </c>
-      <c r="B3647" t="s">
+      <c r="B3648" t="s">
         <v>5985</v>
       </c>
     </row>
-    <row r="3648" spans="1:2" ht="27">
-      <c r="A3648" t="s">
+    <row r="3649" spans="1:2" ht="27">
+      <c r="A3649" t="s">
         <v>5986</v>
       </c>
-      <c r="B3648" s="3" t="s">
+      <c r="B3649" s="3" t="s">
         <v>5987</v>
       </c>
     </row>
-    <row r="3649" spans="1:2">
-      <c r="A3649" t="s">
+    <row r="3650" spans="1:2">
+      <c r="A3650" t="s">
         <v>702</v>
       </c>
-      <c r="B3649" t="s">
+      <c r="B3650" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="3650" spans="1:2" ht="27">
-      <c r="A3650" t="s">
+    <row r="3651" spans="1:2" ht="27">
+      <c r="A3651" t="s">
         <v>5988</v>
       </c>
-      <c r="B3650" s="3" t="s">
+      <c r="B3651" s="3" t="s">
         <v>5989</v>
       </c>
     </row>
-    <row r="3651" spans="1:2">
-      <c r="A3651" s="12" t="s">
+    <row r="3652" spans="1:2">
+      <c r="A3652" s="12" t="s">
         <v>5990</v>
       </c>
-      <c r="B3651" s="3" t="s">
+      <c r="B3652" s="3" t="s">
         <v>5991</v>
       </c>
     </row>
-    <row r="3652" spans="1:2">
-      <c r="A3652" t="s">
+    <row r="3653" spans="1:2">
+      <c r="A3653" t="s">
         <v>720</v>
       </c>
-      <c r="B3652" t="s">
+      <c r="B3653" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="3653" spans="1:2" ht="27">
-      <c r="A3653" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3653" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="3654" spans="1:2" ht="27">
       <c r="A3654" t="s">
-        <v>5992</v>
+        <v>482</v>
       </c>
       <c r="B3654" s="3" t="s">
-        <v>5993</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3655" spans="1:2" ht="27">
       <c r="A3655" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B3655" s="3" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2" ht="27">
+      <c r="A3656" t="s">
         <v>724</v>
       </c>
-      <c r="B3655" s="3" t="s">
+      <c r="B3656" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="3656" spans="1:2">
-      <c r="A3656" t="s">
+    <row r="3657" spans="1:2">
+      <c r="A3657" t="s">
         <v>5994</v>
       </c>
-      <c r="B3656" t="s">
+      <c r="B3657" t="s">
         <v>5995</v>
       </c>
     </row>
-    <row r="3657" spans="1:2" ht="27">
-      <c r="A3657" t="s">
+    <row r="3658" spans="1:2" ht="27">
+      <c r="A3658" t="s">
         <v>5996</v>
       </c>
-      <c r="B3657" s="3" t="s">
+      <c r="B3658" s="3" t="s">
         <v>5997</v>
-      </c>
-    </row>
-    <row r="3658" spans="1:2">
-      <c r="A3658" t="s">
-        <v>5998</v>
-      </c>
-      <c r="B3658" t="s">
-        <v>5999</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
       <c r="A3659" t="s">
-        <v>6000</v>
+        <v>5998</v>
       </c>
       <c r="B3659" t="s">
-        <v>6001</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
       <c r="A3660" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2">
+      <c r="A3661" t="s">
         <v>6002</v>
       </c>
-      <c r="B3660" t="s">
+      <c r="B3661" t="s">
         <v>6003</v>
       </c>
     </row>
-    <row r="3662" spans="1:2">
-      <c r="B3662" s="3"/>
-    </row>
     <row r="3663" spans="1:2">
-      <c r="A3663" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3663" t="s">
-        <v>745</v>
-      </c>
+      <c r="B3663" s="3"/>
     </row>
     <row r="3664" spans="1:2">
       <c r="A3664" t="s">
-        <v>6004</v>
+        <v>744</v>
       </c>
       <c r="B3664" t="s">
-        <v>6005</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
       <c r="A3665" t="s">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B3665" t="s">
-        <v>6007</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
       <c r="A3666" t="s">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B3666" t="s">
-        <v>6009</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
       <c r="A3667" t="s">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B3667" t="s">
-        <v>6011</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
       <c r="A3668" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2">
+      <c r="A3669" t="s">
         <v>6012</v>
       </c>
-      <c r="B3668" t="s">
+      <c r="B3669" t="s">
         <v>6013</v>
       </c>
     </row>
-    <row r="3669" spans="1:2">
-      <c r="A3669" s="11" t="s">
+    <row r="3670" spans="1:2">
+      <c r="A3670" s="11" t="s">
         <v>6014</v>
       </c>
     </row>
-    <row r="3670" spans="1:2">
-      <c r="A3670" t="s">
+    <row r="3671" spans="1:2">
+      <c r="A3671" t="s">
         <v>6015</v>
       </c>
-      <c r="B3670" t="s">
+      <c r="B3671" t="s">
         <v>6016</v>
       </c>
     </row>
-    <row r="3671" spans="1:2" ht="27">
-      <c r="A3671" t="s">
+    <row r="3672" spans="1:2" ht="27">
+      <c r="A3672" t="s">
         <v>6017</v>
       </c>
-      <c r="B3671" s="3" t="s">
+      <c r="B3672" s="3" t="s">
         <v>6018</v>
       </c>
     </row>
-    <row r="3672" spans="1:2">
-      <c r="B3672" s="3"/>
-    </row>
     <row r="3673" spans="1:2">
-      <c r="A3673" t="s">
+      <c r="B3673" s="3"/>
+    </row>
+    <row r="3674" spans="1:2">
+      <c r="A3674" t="s">
         <v>6019</v>
       </c>
-      <c r="B3673" t="s">
+      <c r="B3674" t="s">
         <v>6020</v>
       </c>
     </row>
-    <row r="3675" spans="1:2">
-      <c r="A3675" s="12"/>
-      <c r="B3675" s="3"/>
-    </row>
     <row r="3676" spans="1:2">
-      <c r="A3676" t="s">
-        <v>654</v>
-      </c>
-      <c r="B3676" t="s">
-        <v>655</v>
-      </c>
+      <c r="A3676" s="12"/>
+      <c r="B3676" s="3"/>
     </row>
     <row r="3677" spans="1:2">
       <c r="A3677" t="s">
-        <v>6021</v>
+        <v>654</v>
       </c>
       <c r="B3677" t="s">
-        <v>6022</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
       <c r="A3678" t="s">
-        <v>6023</v>
+        <v>6021</v>
       </c>
       <c r="B3678" t="s">
-        <v>6024</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
       <c r="A3679" t="s">
-        <v>656</v>
+        <v>6023</v>
+      </c>
+      <c r="B3679" t="s">
+        <v>6024</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
       <c r="A3680" t="s">
-        <v>657</v>
-      </c>
-      <c r="B3680" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
       <c r="A3681" t="s">
-        <v>6025</v>
+        <v>657</v>
       </c>
       <c r="B3681" t="s">
-        <v>6026</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
       <c r="A3682" t="s">
-        <v>2168</v>
+        <v>6025</v>
       </c>
       <c r="B3682" t="s">
-        <v>2169</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
       <c r="A3683" t="s">
-        <v>3791</v>
+        <v>2168</v>
       </c>
       <c r="B3683" t="s">
-        <v>3792</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
       <c r="A3684" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3684" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2">
+      <c r="A3685" t="s">
         <v>6027</v>
       </c>
-      <c r="B3684" t="s">
+      <c r="B3685" t="s">
         <v>6028</v>
       </c>
     </row>
-    <row r="3685" spans="1:2" ht="40.5">
-      <c r="A3685" t="s">
+    <row r="3686" spans="1:2" ht="40.5">
+      <c r="A3686" t="s">
         <v>3400</v>
       </c>
-      <c r="B3685" s="3" t="s">
+      <c r="B3686" s="3" t="s">
         <v>6029</v>
       </c>
     </row>
-    <row r="3686" spans="1:2">
-      <c r="B3686" s="3"/>
-    </row>
     <row r="3687" spans="1:2">
-      <c r="A3687" t="s">
+      <c r="B3687" s="3"/>
+    </row>
+    <row r="3688" spans="1:2">
+      <c r="A3688" t="s">
         <v>6030</v>
       </c>
-      <c r="B3687" t="s">
+      <c r="B3688" t="s">
         <v>6031</v>
-      </c>
-    </row>
-    <row r="3690" spans="1:2" ht="27">
-      <c r="A3690" t="s">
-        <v>6032</v>
-      </c>
-      <c r="B3690" s="3" t="s">
-        <v>6033</v>
       </c>
     </row>
     <row r="3691" spans="1:2" ht="27">
       <c r="A3691" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B3691" s="3" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2" ht="27">
+      <c r="A3692" t="s">
         <v>6034</v>
       </c>
-      <c r="B3691" s="3" t="s">
+      <c r="B3692" s="3" t="s">
         <v>6035</v>
       </c>
     </row>
-    <row r="3692" spans="1:2" ht="54">
-      <c r="A3692" t="s">
+    <row r="3693" spans="1:2" ht="54">
+      <c r="A3693" t="s">
         <v>6036</v>
       </c>
-      <c r="B3692" s="3" t="s">
+      <c r="B3693" s="3" t="s">
         <v>6037</v>
       </c>
-    </row>
-    <row r="3693" spans="1:2">
-      <c r="A3693" s="12" t="s">
-        <v>6038</v>
-      </c>
-      <c r="B3693" s="3"/>
     </row>
     <row r="3694" spans="1:2">
       <c r="A3694" s="12" t="s">
+        <v>6038</v>
+      </c>
+      <c r="B3694" s="3"/>
+    </row>
+    <row r="3695" spans="1:2">
+      <c r="A3695" s="12" t="s">
         <v>6039</v>
       </c>
-      <c r="B3694" s="3"/>
-    </row>
-    <row r="3695" spans="1:2" ht="54">
-      <c r="A3695" t="s">
+      <c r="B3695" s="3"/>
+    </row>
+    <row r="3696" spans="1:2" ht="40.5">
+      <c r="A3696" t="s">
         <v>6040</v>
       </c>
-      <c r="B3695" s="3" t="s">
+      <c r="B3696" s="3" t="s">
         <v>6041</v>
-      </c>
-    </row>
-    <row r="3696" spans="1:2" ht="27">
-      <c r="A3696" t="s">
-        <v>6042</v>
-      </c>
-      <c r="B3696" s="3" t="s">
-        <v>6043</v>
       </c>
     </row>
     <row r="3697" spans="1:2" ht="27">
       <c r="A3697" t="s">
+        <v>6042</v>
+      </c>
+      <c r="B3697" s="3" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2" ht="27">
+      <c r="A3698" t="s">
         <v>6044</v>
       </c>
-      <c r="B3697" s="3" t="s">
+      <c r="B3698" s="3" t="s">
         <v>6045</v>
-      </c>
-    </row>
-    <row r="3698" spans="1:2">
-      <c r="A3698" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B3698" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
       <c r="A3699" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B3699" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2">
+      <c r="A3700" t="s">
         <v>4358</v>
       </c>
-      <c r="B3699" t="s">
+      <c r="B3700" t="s">
         <v>4359</v>
       </c>
     </row>
-    <row r="3700" spans="1:2" ht="27">
-      <c r="A3700" t="s">
+    <row r="3701" spans="1:2" ht="27">
+      <c r="A3701" t="s">
         <v>6046</v>
       </c>
-      <c r="B3700" s="3" t="s">
+      <c r="B3701" s="3" t="s">
         <v>6047</v>
       </c>
     </row>
-    <row r="3701" spans="1:2">
-      <c r="A3701" t="s">
+    <row r="3702" spans="1:2">
+      <c r="A3702" t="s">
         <v>6048</v>
       </c>
-      <c r="B3701" t="s">
+      <c r="B3702" t="s">
         <v>6049</v>
       </c>
     </row>
-    <row r="3702" spans="1:2" ht="27">
-      <c r="A3702" t="s">
+    <row r="3703" spans="1:2" ht="27">
+      <c r="A3703" t="s">
         <v>4449</v>
       </c>
-      <c r="B3702" s="3" t="s">
+      <c r="B3703" s="3" t="s">
         <v>6050</v>
       </c>
     </row>
-    <row r="3704" spans="1:2" ht="27">
-      <c r="A3704" t="s">
+    <row r="3705" spans="1:2" ht="27">
+      <c r="A3705" t="s">
         <v>6051</v>
       </c>
-      <c r="B3704" s="3" t="s">
+      <c r="B3705" s="3" t="s">
         <v>6052</v>
       </c>
     </row>
-    <row r="3705" spans="1:2">
-      <c r="A3705" t="s">
+    <row r="3706" spans="1:2">
+      <c r="A3706" t="s">
         <v>6053</v>
       </c>
-      <c r="B3705" t="s">
+      <c r="B3706" t="s">
         <v>6054</v>
       </c>
     </row>
-    <row r="3706" spans="1:2">
-      <c r="A3706" s="12" t="s">
+    <row r="3707" spans="1:2">
+      <c r="A3707" s="12" t="s">
         <v>6055</v>
       </c>
-      <c r="B3706" s="3" t="s">
+      <c r="B3707" s="3" t="s">
         <v>6056</v>
-      </c>
-    </row>
-    <row r="3707" spans="1:2">
-      <c r="A3707" t="s">
-        <v>6057</v>
-      </c>
-      <c r="B3707" t="s">
-        <v>6058</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
       <c r="A3708" t="s">
-        <v>2245</v>
+        <v>6057</v>
       </c>
       <c r="B3708" t="s">
-        <v>2246</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
       <c r="A3709" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B3709" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:2">
+      <c r="A3710" t="s">
         <v>139</v>
       </c>
-      <c r="B3709" t="s">
+      <c r="B3710" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3710" spans="1:2" ht="27">
-      <c r="A3710" t="s">
+    <row r="3711" spans="1:2" ht="27">
+      <c r="A3711" t="s">
         <v>337</v>
       </c>
-      <c r="B3710" s="3" t="s">
+      <c r="B3711" s="3" t="s">
         <v>6059</v>
       </c>
     </row>
-    <row r="3711" spans="1:2">
-      <c r="B3711" s="3"/>
-    </row>
-    <row r="3712" spans="1:2" ht="27">
-      <c r="A3712" t="s">
+    <row r="3712" spans="1:2">
+      <c r="B3712" s="3"/>
+    </row>
+    <row r="3713" spans="1:2" ht="27">
+      <c r="A3713" t="s">
         <v>457</v>
       </c>
-      <c r="B3712" s="3" t="s">
+      <c r="B3713" s="3" t="s">
         <v>6060</v>
       </c>
     </row>
-    <row r="3713" spans="1:2">
-      <c r="A3713" t="s">
+    <row r="3714" spans="1:2">
+      <c r="A3714" t="s">
         <v>6061</v>
       </c>
-      <c r="B3713" t="s">
+      <c r="B3714" t="s">
         <v>6062</v>
       </c>
     </row>
-    <row r="3714" spans="1:2" ht="27">
-      <c r="A3714" t="s">
+    <row r="3715" spans="1:2" ht="27">
+      <c r="A3715" t="s">
         <v>6063</v>
       </c>
-      <c r="B3714" s="3" t="s">
+      <c r="B3715" s="3" t="s">
         <v>6064</v>
       </c>
     </row>
-    <row r="3715" spans="1:2">
-      <c r="A3715" t="s">
+    <row r="3716" spans="1:2">
+      <c r="A3716" t="s">
         <v>2305</v>
       </c>
-      <c r="B3715" t="s">
+      <c r="B3716" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="3716" spans="1:2" ht="27">
-      <c r="A3716" t="s">
+    <row r="3717" spans="1:2" ht="27">
+      <c r="A3717" t="s">
         <v>869</v>
       </c>
-      <c r="B3716" s="3" t="s">
+      <c r="B3717" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="3717" spans="1:2" ht="40.5">
-      <c r="A3717" t="s">
+    <row r="3718" spans="1:2" ht="40.5">
+      <c r="A3718" t="s">
         <v>871</v>
       </c>
-      <c r="B3717" s="3" t="s">
+      <c r="B3718" s="3" t="s">
         <v>6065</v>
       </c>
     </row>
-    <row r="3718" spans="1:2" ht="27">
-      <c r="A3718" t="s">
+    <row r="3719" spans="1:2" ht="27">
+      <c r="A3719" t="s">
         <v>6066</v>
       </c>
-      <c r="B3718" s="3" t="s">
+      <c r="B3719" s="3" t="s">
         <v>6067</v>
-      </c>
-    </row>
-    <row r="3719" spans="1:2">
-      <c r="A3719" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B3719" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
       <c r="A3720" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B3720" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:2">
+      <c r="A3721" t="s">
         <v>6068</v>
       </c>
-      <c r="B3720" t="s">
+      <c r="B3721" t="s">
         <v>6069</v>
       </c>
     </row>
-    <row r="3721" spans="1:2">
-      <c r="B3721" s="3"/>
-    </row>
-    <row r="3722" spans="1:2" ht="27">
-      <c r="A3722" t="s">
+    <row r="3722" spans="1:2">
+      <c r="B3722" s="3"/>
+    </row>
+    <row r="3723" spans="1:2" ht="27">
+      <c r="A3723" t="s">
         <v>6070</v>
       </c>
-      <c r="B3722" s="3" t="s">
+      <c r="B3723" s="3" t="s">
         <v>6071</v>
-      </c>
-    </row>
-    <row r="3723" spans="1:2">
-      <c r="A3723" t="s">
-        <v>6072</v>
-      </c>
-      <c r="B3723" t="s">
-        <v>6073</v>
       </c>
     </row>
     <row r="3724" spans="1:2">
       <c r="A3724" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B3724" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2">
+      <c r="A3725" t="s">
         <v>6074</v>
       </c>
-      <c r="B3724" t="s">
+      <c r="B3725" t="s">
         <v>6075</v>
       </c>
     </row>
-    <row r="3725" spans="1:2">
-      <c r="A3725" s="12" t="s">
+    <row r="3726" spans="1:2">
+      <c r="A3726" s="12" t="s">
         <v>6076</v>
       </c>
     </row>
-    <row r="3728" spans="1:2">
-      <c r="A3728" t="s">
+    <row r="3729" spans="1:2">
+      <c r="A3729" t="s">
         <v>6077</v>
       </c>
-      <c r="B3728" t="s">
+      <c r="B3729" t="s">
         <v>6078</v>
       </c>
     </row>
-    <row r="3729" spans="1:2">
-      <c r="A3729" s="11" t="s">
+    <row r="3730" spans="1:2">
+      <c r="A3730" s="11" t="s">
         <v>6079</v>
       </c>
-      <c r="B3729" s="11" t="s">
+      <c r="B3730" s="11" t="s">
         <v>6080</v>
-      </c>
-    </row>
-    <row r="3730" spans="1:2">
-      <c r="A3730" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B3730" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
       <c r="A3731" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B3731" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2">
+      <c r="A3732" t="s">
         <v>6081</v>
       </c>
-      <c r="B3731" t="s">
+      <c r="B3732" t="s">
         <v>6082</v>
       </c>
     </row>
-    <row r="3733" spans="1:2">
-      <c r="A3733" t="s">
+    <row r="3734" spans="1:2">
+      <c r="A3734" t="s">
         <v>2921</v>
       </c>
-      <c r="B3733" t="s">
+      <c r="B3734" t="s">
         <v>2922</v>
       </c>
     </row>
-    <row r="3734" spans="1:2">
-      <c r="A3734" s="10" t="s">
+    <row r="3735" spans="1:2">
+      <c r="A3735" s="10" t="s">
         <v>2303</v>
       </c>
-      <c r="B3734" s="10" t="s">
+      <c r="B3735" s="10" t="s">
         <v>2304</v>
-      </c>
-    </row>
-    <row r="3735" spans="1:2">
-      <c r="A3735" t="s">
-        <v>3808</v>
-      </c>
-      <c r="B3735" t="s">
-        <v>3809</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
       <c r="A3736" t="s">
-        <v>1872</v>
+        <v>3808</v>
       </c>
       <c r="B3736" t="s">
-        <v>1873</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
       <c r="A3737" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B3737" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2">
+      <c r="A3738" t="s">
         <v>6083</v>
       </c>
-      <c r="B3737" t="s">
+      <c r="B3738" t="s">
         <v>6084</v>
       </c>
     </row>
-    <row r="3738" spans="1:2">
-      <c r="A3738" s="12" t="s">
+    <row r="3739" spans="1:2">
+      <c r="A3739" s="12" t="s">
         <v>6085</v>
       </c>
     </row>
-    <row r="3739" spans="1:2">
-      <c r="B3739" s="3"/>
-    </row>
     <row r="3740" spans="1:2">
-      <c r="A3740" s="12" t="s">
+      <c r="B3740" s="3"/>
+    </row>
+    <row r="3741" spans="1:2">
+      <c r="A3741" s="12" t="s">
         <v>6086</v>
       </c>
     </row>
-    <row r="3741" spans="1:2">
-      <c r="A3741" t="s">
+    <row r="3742" spans="1:2">
+      <c r="A3742" t="s">
         <v>6087</v>
       </c>
-      <c r="B3741" t="s">
+      <c r="B3742" t="s">
         <v>6088</v>
       </c>
     </row>
-    <row r="3742" spans="1:2">
-      <c r="A3742" s="12" t="s">
+    <row r="3743" spans="1:2">
+      <c r="A3743" s="12" t="s">
         <v>6089</v>
       </c>
-      <c r="B3742" s="11" t="s">
+      <c r="B3743" s="11" t="s">
         <v>6090</v>
       </c>
     </row>
-    <row r="3743" spans="1:2" ht="27">
-      <c r="A3743" t="s">
+    <row r="3744" spans="1:2" ht="27">
+      <c r="A3744" t="s">
         <v>6091</v>
       </c>
-      <c r="B3743" s="3" t="s">
+      <c r="B3744" s="3" t="s">
         <v>6092</v>
       </c>
     </row>
-    <row r="3744" spans="1:2">
-      <c r="A3744" t="s">
+    <row r="3745" spans="1:2">
+      <c r="A3745" t="s">
         <v>6093</v>
       </c>
-      <c r="B3744" t="s">
+      <c r="B3745" t="s">
         <v>6094</v>
-      </c>
-    </row>
-    <row r="3746" spans="1:2">
-      <c r="A3746" t="s">
-        <v>932</v>
-      </c>
-      <c r="B3746" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
       <c r="A3747" t="s">
+        <v>932</v>
+      </c>
+      <c r="B3747" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2">
+      <c r="A3748" t="s">
         <v>6095</v>
       </c>
-      <c r="B3747" t="s">
+      <c r="B3748" t="s">
         <v>6096</v>
-      </c>
-    </row>
-    <row r="3748" spans="1:2">
-      <c r="A3748" s="11" t="s">
-        <v>6097</v>
-      </c>
-      <c r="B3748" s="11" t="s">
-        <v>6098</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
       <c r="A3749" s="11" t="s">
+        <v>6097</v>
+      </c>
+      <c r="B3749" s="11" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:2">
+      <c r="A3750" s="11" t="s">
         <v>6099</v>
       </c>
-      <c r="B3749" s="11" t="s">
+      <c r="B3750" s="11" t="s">
         <v>6100</v>
       </c>
     </row>
-    <row r="3750" spans="1:2">
-      <c r="A3750" t="s">
+    <row r="3751" spans="1:2">
+      <c r="A3751" t="s">
         <v>3328</v>
       </c>
-      <c r="B3750" t="s">
+      <c r="B3751" t="s">
         <v>3329</v>
       </c>
     </row>
-    <row r="3751" spans="1:2">
-      <c r="A3751" s="10" t="s">
+    <row r="3752" spans="1:2">
+      <c r="A3752" s="10" t="s">
         <v>2266</v>
       </c>
-      <c r="B3751" s="10" t="s">
+      <c r="B3752" s="10" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="3752" spans="1:2">
-      <c r="A3752" t="s">
+    <row r="3753" spans="1:2">
+      <c r="A3753" t="s">
         <v>6101</v>
       </c>
-      <c r="B3752" t="s">
+      <c r="B3753" t="s">
         <v>6102</v>
       </c>
     </row>
-    <row r="3753" spans="1:2" ht="27">
-      <c r="A3753" t="s">
+    <row r="3754" spans="1:2" ht="27">
+      <c r="A3754" t="s">
         <v>2167</v>
       </c>
-      <c r="B3753" s="3" t="s">
+      <c r="B3754" s="3" t="s">
         <v>6103</v>
       </c>
     </row>
-    <row r="3754" spans="1:2">
-      <c r="B3754" s="3"/>
-    </row>
     <row r="3755" spans="1:2">
-      <c r="A3755" t="s">
-        <v>6104</v>
-      </c>
-      <c r="B3755" t="s">
-        <v>6105</v>
-      </c>
+      <c r="B3755" s="3"/>
     </row>
     <row r="3756" spans="1:2">
       <c r="A3756" t="s">
-        <v>4082</v>
+        <v>6104</v>
       </c>
       <c r="B3756" t="s">
-        <v>4083</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
       <c r="A3757" t="s">
-        <v>6106</v>
+        <v>4082</v>
       </c>
       <c r="B3757" t="s">
-        <v>6107</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
       <c r="A3758" t="s">
-        <v>988</v>
+        <v>6106</v>
       </c>
       <c r="B3758" t="s">
-        <v>989</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
       <c r="A3759" t="s">
-        <v>6108</v>
+        <v>988</v>
       </c>
       <c r="B3759" t="s">
-        <v>6109</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
       <c r="A3760" t="s">
-        <v>6110</v>
+        <v>6108</v>
       </c>
       <c r="B3760" t="s">
-        <v>6111</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
       <c r="A3761" t="s">
-        <v>6112</v>
+        <v>6110</v>
       </c>
       <c r="B3761" t="s">
-        <v>6113</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
       <c r="A3762" t="s">
+        <v>6112</v>
+      </c>
+      <c r="B3762" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:2">
+      <c r="A3763" t="s">
         <v>1017</v>
       </c>
-      <c r="B3762" t="s">
+      <c r="B3763" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="3763" spans="1:2" ht="27">
-      <c r="A3763" t="s">
+    <row r="3764" spans="1:2" ht="27">
+      <c r="A3764" t="s">
         <v>6114</v>
       </c>
-      <c r="B3763" s="3" t="s">
+      <c r="B3764" s="3" t="s">
         <v>6115</v>
-      </c>
-    </row>
-    <row r="3764" spans="1:2">
-      <c r="A3764" t="s">
-        <v>6116</v>
-      </c>
-      <c r="B3764" t="s">
-        <v>6117</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
       <c r="A3765" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B3765" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:2">
+      <c r="A3766" t="s">
         <v>6118</v>
       </c>
-      <c r="B3765" t="s">
+      <c r="B3766" t="s">
         <v>6119</v>
       </c>
     </row>
-    <row r="3766" spans="1:2" ht="27">
-      <c r="A3766" t="s">
+    <row r="3767" spans="1:2" ht="27">
+      <c r="A3767" t="s">
         <v>1026</v>
       </c>
-      <c r="B3766" s="3" t="s">
+      <c r="B3767" s="3" t="s">
         <v>6120</v>
-      </c>
-    </row>
-    <row r="3767" spans="1:2">
-      <c r="A3767" t="s">
-        <v>6121</v>
-      </c>
-      <c r="B3767" t="s">
-        <v>6122</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
       <c r="A3768" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B3768" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:2">
+      <c r="A3769" t="s">
         <v>1036</v>
       </c>
-      <c r="B3768" t="s">
+      <c r="B3769" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="3769" spans="1:2" ht="27">
-      <c r="A3769" t="s">
+    <row r="3770" spans="1:2" ht="27">
+      <c r="A3770" t="s">
         <v>6123</v>
       </c>
-      <c r="B3769" s="3" t="s">
+      <c r="B3770" s="3" t="s">
         <v>6124</v>
       </c>
     </row>
-    <row r="3770" spans="1:2">
-      <c r="A3770" t="s">
+    <row r="3771" spans="1:2">
+      <c r="A3771" t="s">
         <v>6125</v>
       </c>
-      <c r="B3770" t="s">
+      <c r="B3771" t="s">
         <v>6126</v>
       </c>
     </row>
-    <row r="3771" spans="1:2" ht="27">
-      <c r="A3771" t="s">
+    <row r="3772" spans="1:2" ht="27">
+      <c r="A3772" t="s">
         <v>1458</v>
       </c>
-      <c r="B3771" s="3" t="s">
+      <c r="B3772" s="3" t="s">
         <v>6127</v>
       </c>
     </row>
-    <row r="3772" spans="1:2">
-      <c r="A3772" t="s">
+    <row r="3773" spans="1:2">
+      <c r="A3773" t="s">
         <v>6128</v>
       </c>
-      <c r="B3772" t="s">
+      <c r="B3773" t="s">
         <v>6129</v>
       </c>
     </row>
-    <row r="3774" spans="1:2">
-      <c r="A3774" s="12"/>
-    </row>
     <row r="3775" spans="1:2">
-      <c r="A3775" t="s">
+      <c r="A3775" s="12"/>
+    </row>
+    <row r="3776" spans="1:2">
+      <c r="A3776" t="s">
         <v>2696</v>
       </c>
-      <c r="B3775" t="s">
+      <c r="B3776" t="s">
         <v>2697</v>
       </c>
     </row>
-    <row r="3776" spans="1:2" ht="27">
-      <c r="A3776" t="s">
+    <row r="3777" spans="1:2" ht="27">
+      <c r="A3777" t="s">
         <v>3458</v>
       </c>
-      <c r="B3776" s="3" t="s">
+      <c r="B3777" s="3" t="s">
         <v>6130</v>
-      </c>
-    </row>
-    <row r="3777" spans="1:2">
-      <c r="A3777" t="s">
-        <v>4378</v>
-      </c>
-      <c r="B3777" t="s">
-        <v>4379</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
       <c r="A3778" t="s">
-        <v>3084</v>
+        <v>4378</v>
       </c>
       <c r="B3778" t="s">
-        <v>3085</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
       <c r="A3779" t="s">
-        <v>6131</v>
+        <v>3084</v>
       </c>
       <c r="B3779" t="s">
-        <v>6132</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
       <c r="A3780" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B3780" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:2">
+      <c r="A3781" t="s">
         <v>1040</v>
       </c>
-      <c r="B3780" t="s">
+      <c r="B3781" t="s">
         <v>1041</v>
-      </c>
-    </row>
-    <row r="3783" spans="1:2">
-      <c r="A3783" t="s">
-        <v>6133</v>
-      </c>
-      <c r="B3783" t="s">
-        <v>6134</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
       <c r="A3784" t="s">
-        <v>3944</v>
+        <v>6133</v>
       </c>
       <c r="B3784" t="s">
-        <v>3945</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
       <c r="A3785" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B3785" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:2">
+      <c r="A3786" t="s">
         <v>3946</v>
       </c>
-      <c r="B3785" t="s">
+      <c r="B3786" t="s">
         <v>3947</v>
-      </c>
-    </row>
-    <row r="3786" spans="1:2" ht="40.5">
-      <c r="A3786" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B3786" s="3" t="s">
-        <v>6135</v>
       </c>
     </row>
     <row r="3787" spans="1:2" ht="40.5">
       <c r="A3787" t="s">
-        <v>1511</v>
+        <v>3557</v>
       </c>
       <c r="B3787" s="3" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="3788" spans="1:2" ht="27">
       <c r="A3788" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B3788" s="3" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:2" ht="27">
+      <c r="A3789" t="s">
         <v>6137</v>
       </c>
-      <c r="B3788" s="3" t="s">
+      <c r="B3789" s="3" t="s">
         <v>6138</v>
-      </c>
-    </row>
-    <row r="3789" spans="1:2">
-      <c r="A3789" t="s">
-        <v>6139</v>
-      </c>
-      <c r="B3789" t="s">
-        <v>6140</v>
       </c>
     </row>
     <row r="3790" spans="1:2">
       <c r="A3790" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B3790" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:2">
+      <c r="A3791" t="s">
         <v>6141</v>
       </c>
-      <c r="B3790" t="s">
+      <c r="B3791" t="s">
         <v>6142</v>
-      </c>
-    </row>
-    <row r="3792" spans="1:2">
-      <c r="A3792" t="s">
-        <v>586</v>
-      </c>
-      <c r="B3792" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
       <c r="A3793" t="s">
-        <v>6143</v>
+        <v>586</v>
       </c>
       <c r="B3793" t="s">
-        <v>6144</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
       <c r="A3794" t="s">
+        <v>6143</v>
+      </c>
+      <c r="B3794" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:2">
+      <c r="A3795" t="s">
         <v>6145</v>
       </c>
-      <c r="B3794" t="s">
+      <c r="B3795" t="s">
         <v>6146</v>
       </c>
     </row>
-    <row r="3795" spans="1:2" ht="27">
-      <c r="A3795" t="s">
+    <row r="3796" spans="1:2" ht="27">
+      <c r="A3796" t="s">
         <v>6147</v>
       </c>
-      <c r="B3795" s="3" t="s">
+      <c r="B3796" s="3" t="s">
         <v>6148</v>
-      </c>
-    </row>
-    <row r="3796" spans="1:2">
-      <c r="A3796" t="s">
-        <v>6149</v>
-      </c>
-      <c r="B3796" t="s">
-        <v>6150</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
       <c r="A3797" t="s">
-        <v>6151</v>
+        <v>6149</v>
       </c>
       <c r="B3797" t="s">
-        <v>6152</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
       <c r="A3798" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B3798" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:2">
+      <c r="A3799" t="s">
         <v>6153</v>
       </c>
-      <c r="B3798" t="s">
+      <c r="B3799" t="s">
         <v>6154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A3395:A3798 B3130 A1826:A2211 A1825:IV1825 A2213:A2453 A826:A1350 A2455:A2782 A3083:A3099 A2784:A3081 A1352:A1777 A1779:A1824 A3100:IV3100 A3101:A3393 A2:A824">
+  <conditionalFormatting sqref="A3395:A3799 B3130 A1826:A2211 A1825:IV1825 A2213:A2453 A826:A1350 A2455:A2782 A3083:A3099 A2784:A3081 A1352:A1777 A1779:A1824 A3100:IV3100 A3101:A3393 A2:A824">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(SUMPRODUCT(1*(($A$2:$A$3798&amp;"x")=(A2&amp;"x")))&gt;1,NOT(ISBLANK(A2)))</formula>
+      <formula>AND(SUMPRODUCT(1*(($A$2:$A$3799&amp;"x")=(A2&amp;"x")))&gt;1,NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B316"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:B316"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="148.5">
+      <c r="A8" s="10" t="s">
+        <v>6180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>5931</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="81">
+      <c r="A12" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="148.5">
+      <c r="A18" s="3" t="s">
+        <v>6184</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="67.5">
+      <c r="A22" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="310.5">
+      <c r="A23" s="10" t="s">
+        <v>6187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="54">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="81">
+      <c r="A27" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>5585</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="54">
+      <c r="A30" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="54">
+      <c r="A32" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="94.5">
+      <c r="A34" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>6194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="54">
+      <c r="A39" t="s">
+        <v>5829</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="81">
+      <c r="A43" t="s">
+        <v>5833</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="67.5">
+      <c r="A45" t="s">
+        <v>5835</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="54">
+      <c r="A46" t="s">
+        <v>5560</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="324">
+      <c r="A47" s="10" t="s">
+        <v>6199</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="189">
+      <c r="A48" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="54">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="54">
+      <c r="A50" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="202.5">
+      <c r="A51" s="10" t="s">
+        <v>6203</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>5484</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>5665</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>5845</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="81">
+      <c r="A58" t="s">
+        <v>5851</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="189">
+      <c r="A59" t="s">
+        <v>5853</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="81">
+      <c r="A60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>6021</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="94.5">
+      <c r="A63" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="54">
+      <c r="A64" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="216">
+      <c r="A66" s="10" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="67.5">
+      <c r="A69" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="67.5">
+      <c r="A71" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="108">
+      <c r="A74" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="121.5">
+      <c r="A75" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="54">
+      <c r="A76" t="s">
+        <v>5572</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="67.5">
+      <c r="A79" t="s">
+        <v>5884</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="229.5">
+      <c r="A80" s="10" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="162">
+      <c r="A81" t="s">
+        <v>5710</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="135">
+      <c r="A82" t="s">
+        <v>5650</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="121.5">
+      <c r="A83" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="40.5">
+      <c r="A84" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="121.5">
+      <c r="A85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="54">
+      <c r="A86" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="162">
+      <c r="A87" t="s">
+        <v>5728</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="67.5">
+      <c r="A88" t="s">
+        <v>6137</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>5638</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="54">
+      <c r="A91" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="54">
+      <c r="A92" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="202.5">
+      <c r="A95" s="10" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="40.5">
+      <c r="A96" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="67.5">
+      <c r="A97" t="s">
+        <v>386</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="40.5">
+      <c r="A98" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>5904</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="40.5">
+      <c r="A101" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="81">
+      <c r="A102" s="10" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="81">
+      <c r="A104" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="54">
+      <c r="A106" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="94.5">
+      <c r="A107" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="108">
+      <c r="A108" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="148.5">
+      <c r="A109" s="10" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="67.5">
+      <c r="A110" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>5914</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="148.5">
+      <c r="A113" s="10" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="40.5">
+      <c r="A115" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="94.5">
+      <c r="A118" s="10" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>5927</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="54">
+      <c r="A120" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="94.5">
+      <c r="A121" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="67.5">
+      <c r="A122" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="40.5">
+      <c r="A123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="54">
+      <c r="A125" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>491</v>
+      </c>
+      <c r="B126" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="67.5">
+      <c r="A128" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="54">
+      <c r="A130" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="40.5">
+      <c r="A131" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>505</v>
+      </c>
+      <c r="B132" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="27">
+      <c r="A133" t="s">
+        <v>5943</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>547</v>
+      </c>
+      <c r="B139" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="54">
+      <c r="A143" t="s">
+        <v>569</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="40.5">
+      <c r="A144" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>5945</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="94.5">
+      <c r="A148" t="s">
+        <v>584</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="202.5">
+      <c r="A151" s="10" t="s">
+        <v>6244</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>5948</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="81">
+      <c r="A153" t="s">
+        <v>5950</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>5950</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="81">
+      <c r="A156" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="108">
+      <c r="A158" t="s">
+        <v>5959</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="81">
+      <c r="A159" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="94.5">
+      <c r="A166" t="s">
+        <v>5965</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>5967</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>667</v>
+      </c>
+      <c r="B169" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>671</v>
+      </c>
+      <c r="B170" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="148.5">
+      <c r="A171" t="s">
+        <v>5762</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>5969</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="40.5">
+      <c r="A175" t="s">
+        <v>5975</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>5998</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="81">
+      <c r="A177" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="81">
+      <c r="A178" t="s">
+        <v>697</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>698</v>
+      </c>
+      <c r="B179" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>5984</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="40.5">
+      <c r="A181" t="s">
+        <v>5986</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>702</v>
+      </c>
+      <c r="B182" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="108">
+      <c r="A183" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>720</v>
+      </c>
+      <c r="B184" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="27">
+      <c r="A185" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="67.5">
+      <c r="A186" t="s">
+        <v>724</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="67.5">
+      <c r="A189" t="s">
+        <v>5996</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>6002</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>738</v>
+      </c>
+      <c r="B191" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="67.5">
+      <c r="A193" t="s">
+        <v>742</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>744</v>
+      </c>
+      <c r="B194" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>6006</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="94.5">
+      <c r="A199" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>6012</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>6015</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="81">
+      <c r="A202" t="s">
+        <v>6017</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="108">
+      <c r="A203" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>6019</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="54">
+      <c r="A206" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>6265</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="54">
+      <c r="A210" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>6027</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="175.5">
+      <c r="A212" s="10" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>6030</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="67.5">
+      <c r="A216" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="67.5">
+      <c r="A217" t="s">
+        <v>6034</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="162">
+      <c r="A219" t="s">
+        <v>6036</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="162">
+      <c r="A220" t="s">
+        <v>6040</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="283.5">
+      <c r="A221" s="10" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="40.5">
+      <c r="A222" t="s">
+        <v>840</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="67.5">
+      <c r="A223" t="s">
+        <v>6042</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="40.5">
+      <c r="A224" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="67.5">
+      <c r="A226" t="s">
+        <v>6046</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="67.5">
+      <c r="A228" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="67.5">
+      <c r="A230" t="s">
+        <v>6051</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>6057</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="40.5">
+      <c r="A234" t="s">
+        <v>5732</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>6061</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="67.5">
+      <c r="A237" t="s">
+        <v>6063</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="67.5">
+      <c r="A239" t="s">
+        <v>869</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="94.5">
+      <c r="A240" t="s">
+        <v>871</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="67.5">
+      <c r="A241" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="67.5">
+      <c r="A243" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>5779</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="67.5">
+      <c r="A247" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>6083</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>992</v>
+      </c>
+      <c r="B254" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="40.5">
+      <c r="A255" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>901</v>
+      </c>
+      <c r="B256" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="121.5">
+      <c r="A257" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>6284</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="324">
+      <c r="A258" s="10" t="s">
+        <v>6285</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="54">
+      <c r="A260" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>5618</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>932</v>
+      </c>
+      <c r="B263" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="216">
+      <c r="A266" s="10" t="s">
+        <v>6290</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>970</v>
+      </c>
+      <c r="B267" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>6097</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="216">
+      <c r="A270" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>6101</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>6106</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="54">
+      <c r="A274" t="s">
+        <v>5631</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>988</v>
+      </c>
+      <c r="B275" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="54">
+      <c r="A277" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>6112</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="81">
+      <c r="A281" t="s">
+        <v>6114</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="216">
+      <c r="A283" s="10" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="54">
+      <c r="A284" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="189">
+      <c r="A286" s="10" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="27">
+      <c r="A289" t="s">
+        <v>6123</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>5620</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="364.5">
+      <c r="A295" s="10" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="54">
+      <c r="A297" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>6141</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="81">
+      <c r="A300" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="162">
+      <c r="A301" t="s">
+        <v>6143</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>6145</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="409.5">
+      <c r="A304" s="3" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="243">
+      <c r="A305" s="10" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="409.5">
+      <c r="A306" t="s">
+        <v>6147</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>6149</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="270">
+      <c r="A309" s="10" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>6153</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="409.5">
+      <c r="A311" s="2" t="s">
+        <v>6313</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="409.5">
+      <c r="A312" s="2" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="409.5">
+      <c r="A313" s="2" t="s">
+        <v>6317</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="324">
+      <c r="A314" s="3" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="409.5">
+      <c r="A315" s="3" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="409.5">
+      <c r="A316" s="3" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>6324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>